--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_21_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1822105.317268215</v>
+        <v>1820496.036096055</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8000239.369791888</v>
+        <v>8000239.36979189</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673451</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9705192.459785981</v>
+        <v>9705192.459785979</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>239.9879130210783</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>222.5269631286052</v>
       </c>
       <c r="D11" t="n">
-        <v>211.9371129782805</v>
+        <v>211.9371129782807</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>264.130117099309</v>
+        <v>103.5915984210986</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>77.22488612021255</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.23370068480169</v>
       </c>
       <c r="T11" t="n">
-        <v>68.04769262841224</v>
+        <v>68.04769262841239</v>
       </c>
       <c r="U11" t="n">
-        <v>108.3748977061044</v>
+        <v>108.3748977061046</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>206.4950400750106</v>
+        <v>206.4950400750107</v>
       </c>
       <c r="X11" t="n">
-        <v>226.9851720360666</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.4920100136511</v>
+        <v>243.4920100136513</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.78725500746489</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>29.96257034591329</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>4.699136922236306</v>
+        <v>4.699136922236448</v>
       </c>
       <c r="E12" t="n">
-        <v>14.8991518129985</v>
+        <v>14.89915181299864</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>2.323283750981574</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8398569848641</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>37.62587671097605</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.799003079515103</v>
+        <v>6.799003079515217</v>
       </c>
       <c r="S12" t="n">
-        <v>120.345019990574</v>
+        <v>1.007414148727385</v>
       </c>
       <c r="T12" t="n">
         <v>194.10392297596</v>
       </c>
       <c r="U12" t="n">
-        <v>83.09652842683904</v>
+        <v>90.40801067971638</v>
       </c>
       <c r="V12" t="n">
-        <v>90.05465850702282</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>108.9490545185173</v>
       </c>
       <c r="X12" t="n">
-        <v>63.02705656107503</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.08605153953485</v>
+        <v>37.08605153953499</v>
       </c>
       <c r="C13" t="n">
-        <v>24.50089245622539</v>
+        <v>24.50089245622553</v>
       </c>
       <c r="D13" t="n">
-        <v>5.869544375809909</v>
+        <v>5.869544375810051</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>3.688034004166866</v>
       </c>
       <c r="F13" t="n">
-        <v>2.675119380528798</v>
+        <v>2.67511938052894</v>
       </c>
       <c r="G13" t="n">
-        <v>23.9844325337497</v>
+        <v>23.98443253374985</v>
       </c>
       <c r="H13" t="n">
-        <v>8.273202207802012</v>
+        <v>8.27320220780217</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S13" t="n">
-        <v>59.30153252655376</v>
+        <v>59.30153252655393</v>
       </c>
       <c r="T13" t="n">
-        <v>222.5593117402442</v>
+        <v>79.81338309784188</v>
       </c>
       <c r="U13" t="n">
-        <v>143.5043397223263</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V13" t="n">
-        <v>184.987299636224</v>
+        <v>109.3917146814257</v>
       </c>
       <c r="W13" t="n">
-        <v>143.7770696941886</v>
+        <v>143.7770696941887</v>
       </c>
       <c r="X13" t="n">
-        <v>82.96372674663471</v>
+        <v>180.6938265092857</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.83872470969234</v>
+        <v>75.83872470969249</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>239.9879130210783</v>
       </c>
       <c r="C14" t="n">
-        <v>222.5269631286051</v>
+        <v>222.5269631286052</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>239.1844414298593</v>
+        <v>239.1844414298595</v>
       </c>
       <c r="F14" t="n">
-        <v>264.130117099309</v>
+        <v>264.1301170993091</v>
       </c>
       <c r="G14" t="n">
-        <v>269.7464768811126</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>167.9475609641861</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.233700684801562</v>
+        <v>2.233700684801704</v>
       </c>
       <c r="T14" t="n">
-        <v>13.9324964331033</v>
+        <v>68.04769262841239</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>108.3748977061046</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>185.0063298277326</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>226.9851720360666</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>77.1948731311398</v>
       </c>
     </row>
     <row r="15">
@@ -1686,25 +1686,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>29.96257034591343</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>4.699136922236448</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>2.323283750981574</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>97.71325251404467</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>37.62587671097612</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>6.799003079515217</v>
       </c>
       <c r="S15" t="n">
-        <v>1.007414148727243</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T15" t="n">
-        <v>51.35799433355758</v>
+        <v>58.66947658643425</v>
       </c>
       <c r="U15" t="n">
-        <v>83.09652842683904</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V15" t="n">
-        <v>90.05465850702282</v>
+        <v>90.05465850702296</v>
       </c>
       <c r="W15" t="n">
-        <v>108.9490545185172</v>
+        <v>108.9490545185173</v>
       </c>
       <c r="X15" t="n">
-        <v>63.02705656107503</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.65504880516188</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.08605153953485</v>
+        <v>37.08605153953499</v>
       </c>
       <c r="C16" t="n">
-        <v>24.50089245622539</v>
+        <v>24.50089245622553</v>
       </c>
       <c r="D16" t="n">
-        <v>5.869544375809909</v>
+        <v>5.869544375810051</v>
       </c>
       <c r="E16" t="n">
-        <v>3.688034004166724</v>
+        <v>3.688034004166866</v>
       </c>
       <c r="F16" t="n">
-        <v>2.675119380528798</v>
+        <v>2.67511938052894</v>
       </c>
       <c r="G16" t="n">
-        <v>23.98443253374971</v>
+        <v>23.98443253374985</v>
       </c>
       <c r="H16" t="n">
-        <v>8.273202207802028</v>
+        <v>8.27320220780217</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.233474627595754</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S16" t="n">
-        <v>202.0474611689562</v>
+        <v>157.0316322892049</v>
       </c>
       <c r="T16" t="n">
-        <v>222.5593117402442</v>
+        <v>79.81338309784188</v>
       </c>
       <c r="U16" t="n">
-        <v>143.5043397223263</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V16" t="n">
-        <v>109.3917146814256</v>
+        <v>109.3917146814257</v>
       </c>
       <c r="W16" t="n">
-        <v>143.7770696941886</v>
+        <v>143.7770696941887</v>
       </c>
       <c r="X16" t="n">
-        <v>82.96372674663471</v>
+        <v>82.96372674663485</v>
       </c>
       <c r="Y16" t="n">
-        <v>147.2008350368938</v>
+        <v>75.83872470969249</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>161.1459090108605</v>
+        <v>161.1459090108606</v>
       </c>
       <c r="C17" t="n">
-        <v>43.7570097051097</v>
+        <v>143.6849591183876</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>160.3424374196417</v>
+        <v>160.3424374196418</v>
       </c>
       <c r="F17" t="n">
-        <v>185.2881130890913</v>
+        <v>85.36016367581084</v>
       </c>
       <c r="G17" t="n">
-        <v>190.9044728708949</v>
+        <v>190.9044728708951</v>
       </c>
       <c r="H17" t="n">
-        <v>89.10555695396846</v>
+        <v>89.1055569539686</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>29.53289369588678</v>
+        <v>29.53289369588691</v>
       </c>
       <c r="V17" t="n">
-        <v>106.1643258175148</v>
+        <v>106.1643258175149</v>
       </c>
       <c r="W17" t="n">
-        <v>127.6530360647929</v>
+        <v>127.653036064793</v>
       </c>
       <c r="X17" t="n">
-        <v>148.1431680258489</v>
+        <v>148.1431680258491</v>
       </c>
       <c r="Y17" t="n">
-        <v>164.6500060034335</v>
+        <v>164.6500060034336</v>
       </c>
     </row>
     <row r="18">
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>6.799003079515217</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U18" t="n">
-        <v>4.254524416621384</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V18" t="n">
-        <v>11.21265449680516</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>190.3630277112283</v>
+        <v>30.10705050829964</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>194.7990808916778</v>
       </c>
     </row>
     <row r="19">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7303611761521</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9713790876240687</v>
+        <v>32.27918313803332</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2502683647287</v>
+        <v>64.66233571210874</v>
       </c>
       <c r="V19" t="n">
-        <v>30.54971067120789</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>65.41446309361177</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>4.121722736417041</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>161.1459090108605</v>
+        <v>161.1459090108606</v>
       </c>
       <c r="C20" t="n">
-        <v>143.6849591183874</v>
+        <v>143.6849591183876</v>
       </c>
       <c r="D20" t="n">
-        <v>133.0951089680628</v>
+        <v>133.095108968063</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>160.3424374196418</v>
       </c>
       <c r="F20" t="n">
-        <v>185.2881130890913</v>
+        <v>143.1695275786433</v>
       </c>
       <c r="G20" t="n">
-        <v>190.9044728708949</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>89.10555695396846</v>
+        <v>89.1055569539686</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>29.53289369588678</v>
+        <v>29.53289369588692</v>
       </c>
       <c r="V20" t="n">
-        <v>33.48370485581587</v>
+        <v>106.1643258175149</v>
       </c>
       <c r="W20" t="n">
-        <v>127.6530360647929</v>
+        <v>127.653036064793</v>
       </c>
       <c r="X20" t="n">
-        <v>148.1431680258489</v>
+        <v>148.1431680258491</v>
       </c>
       <c r="Y20" t="n">
-        <v>164.6500060034335</v>
+        <v>164.6500060034336</v>
       </c>
     </row>
     <row r="21">
@@ -2163,16 +2163,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>49.82015792446701</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>6.799003079515217</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T21" t="n">
-        <v>186.3275883963406</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U21" t="n">
-        <v>4.254524416621384</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>30.10705050829964</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,31 +2236,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>110.1632654142733</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>53.7131055786756</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.233474627595754</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9713790876240687</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U22" t="n">
-        <v>64.6623357121086</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V22" t="n">
-        <v>30.54971067120789</v>
+        <v>30.54971067120803</v>
       </c>
       <c r="W22" t="n">
-        <v>64.93506568397089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>4.121722736417041</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>161.1459090108605</v>
+        <v>161.1459090108606</v>
       </c>
       <c r="C23" t="n">
-        <v>143.6849591183874</v>
+        <v>143.6849591183876</v>
       </c>
       <c r="D23" t="n">
-        <v>133.0951089680628</v>
+        <v>133.095108968063</v>
       </c>
       <c r="E23" t="n">
-        <v>160.3424374196417</v>
+        <v>160.3424374196418</v>
       </c>
       <c r="F23" t="n">
-        <v>185.2881130890913</v>
+        <v>185.2881130890915</v>
       </c>
       <c r="G23" t="n">
-        <v>190.9044728708949</v>
+        <v>190.9044728708951</v>
       </c>
       <c r="H23" t="n">
-        <v>89.10555695396846</v>
+        <v>89.1055569539686</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>29.53289369588678</v>
+        <v>29.53289369588692</v>
       </c>
       <c r="V23" t="n">
-        <v>106.1643258175148</v>
+        <v>106.1643258175149</v>
       </c>
       <c r="W23" t="n">
-        <v>127.6530360647929</v>
+        <v>127.653036064793</v>
       </c>
       <c r="X23" t="n">
-        <v>148.1431680258489</v>
+        <v>148.1431680258491</v>
       </c>
       <c r="Y23" t="n">
-        <v>164.6500060034335</v>
+        <v>164.6500060034336</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>15.61492937601127</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.71325251404467</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>37.62587671097612</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>6.799003079515217</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U24" t="n">
-        <v>40.60649812324973</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V24" t="n">
-        <v>11.21265449680516</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>159.9348632714559</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.233474627595754</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>286.2502683647287</v>
       </c>
       <c r="V25" t="n">
-        <v>30.54971067120789</v>
+        <v>30.54971067120803</v>
       </c>
       <c r="W25" t="n">
-        <v>64.93506568397089</v>
+        <v>130.46265619863</v>
       </c>
       <c r="X25" t="n">
-        <v>4.121722736417041</v>
+        <v>4.121722736417183</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.8514855963709</v>
       </c>
       <c r="I26" t="n">
-        <v>23.28856145325719</v>
+        <v>23.28856145325717</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>290.8890966682513</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.395934645836</v>
+        <v>307.3959346458359</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>100.9899761717196</v>
       </c>
       <c r="C28" t="n">
-        <v>88.40481708841017</v>
+        <v>88.40481708841016</v>
       </c>
       <c r="D28" t="n">
-        <v>69.77346900799469</v>
+        <v>69.77346900799468</v>
       </c>
       <c r="E28" t="n">
-        <v>67.59195863635151</v>
+        <v>67.59195863635149</v>
       </c>
       <c r="F28" t="n">
-        <v>66.57904401271358</v>
+        <v>66.57904401271357</v>
       </c>
       <c r="G28" t="n">
-        <v>87.88835716593449</v>
+        <v>87.88835716593448</v>
       </c>
       <c r="H28" t="n">
-        <v>72.17712683998681</v>
+        <v>72.1771268399868</v>
       </c>
       <c r="I28" t="n">
-        <v>38.69824412549286</v>
+        <v>38.69824412549285</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76940982432937</v>
+        <v>41.76940982432935</v>
       </c>
       <c r="S28" t="n">
-        <v>123.2054571587386</v>
+        <v>123.2054571587385</v>
       </c>
       <c r="T28" t="n">
         <v>143.7173077300265</v>
@@ -2810,7 +2810,7 @@
         <v>231.8514855963709</v>
       </c>
       <c r="I29" t="n">
-        <v>23.2885614532572</v>
+        <v>23.28856145325717</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>290.8890966682513</v>
       </c>
       <c r="Y29" t="n">
-        <v>307.395934645836</v>
+        <v>307.3959346458359</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.799003079515231</v>
+        <v>6.799003079515217</v>
       </c>
       <c r="S30" t="n">
         <v>143.7533427911297</v>
@@ -2950,25 +2950,25 @@
         <v>100.9899761717196</v>
       </c>
       <c r="C31" t="n">
-        <v>88.40481708841017</v>
+        <v>88.40481708841016</v>
       </c>
       <c r="D31" t="n">
-        <v>69.77346900799469</v>
+        <v>69.77346900799468</v>
       </c>
       <c r="E31" t="n">
-        <v>67.59195863635151</v>
+        <v>67.59195863635149</v>
       </c>
       <c r="F31" t="n">
-        <v>66.57904401271358</v>
+        <v>66.57904401271357</v>
       </c>
       <c r="G31" t="n">
         <v>87.88835716593448</v>
       </c>
       <c r="H31" t="n">
-        <v>72.17712683998681</v>
+        <v>72.1771268399868</v>
       </c>
       <c r="I31" t="n">
-        <v>38.69824412549287</v>
+        <v>38.69824412549285</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76940982432937</v>
+        <v>41.76940982432935</v>
       </c>
       <c r="S31" t="n">
-        <v>123.2054571587386</v>
+        <v>123.2054571587385</v>
       </c>
       <c r="T31" t="n">
         <v>143.7173077300265</v>
@@ -3038,16 +3038,16 @@
         <v>303.0883660620441</v>
       </c>
       <c r="F32" t="n">
-        <v>328.0340417314937</v>
+        <v>328.0340417314938</v>
       </c>
       <c r="G32" t="n">
-        <v>333.6504015132973</v>
+        <v>333.6504015132974</v>
       </c>
       <c r="H32" t="n">
         <v>231.8514855963709</v>
       </c>
       <c r="I32" t="n">
-        <v>23.28856145325719</v>
+        <v>23.28856145325723</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.13762531698634</v>
+        <v>66.13762531698639</v>
       </c>
       <c r="T32" t="n">
-        <v>131.951617260597</v>
+        <v>131.9516172605971</v>
       </c>
       <c r="U32" t="n">
-        <v>172.2788223382892</v>
+        <v>172.2788223382893</v>
       </c>
       <c r="V32" t="n">
-        <v>248.9102544599172</v>
+        <v>248.9102544599173</v>
       </c>
       <c r="W32" t="n">
-        <v>270.3989647071953</v>
+        <v>270.3989647071954</v>
       </c>
       <c r="X32" t="n">
-        <v>290.8890966682513</v>
+        <v>290.8890966682514</v>
       </c>
       <c r="Y32" t="n">
         <v>307.395934645836</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.9899761717196</v>
+        <v>100.9899761717197</v>
       </c>
       <c r="C34" t="n">
-        <v>88.40481708841017</v>
+        <v>88.40481708841021</v>
       </c>
       <c r="D34" t="n">
-        <v>69.77346900799469</v>
+        <v>69.77346900799473</v>
       </c>
       <c r="E34" t="n">
-        <v>67.59195863635151</v>
+        <v>67.59195863635155</v>
       </c>
       <c r="F34" t="n">
-        <v>66.57904401271358</v>
+        <v>66.57904401271362</v>
       </c>
       <c r="G34" t="n">
-        <v>87.88835716593449</v>
+        <v>87.88835716593452</v>
       </c>
       <c r="H34" t="n">
-        <v>72.17712683998681</v>
+        <v>72.17712683998685</v>
       </c>
       <c r="I34" t="n">
-        <v>38.69824412549286</v>
+        <v>38.69824412549291</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76940982432937</v>
+        <v>41.7694098243294</v>
       </c>
       <c r="S34" t="n">
         <v>123.2054571587386</v>
       </c>
       <c r="T34" t="n">
-        <v>143.7173077300265</v>
+        <v>143.7173077300266</v>
       </c>
       <c r="U34" t="n">
-        <v>207.408264354511</v>
+        <v>207.4082643545111</v>
       </c>
       <c r="V34" t="n">
-        <v>173.2956393136103</v>
+        <v>173.2956393136104</v>
       </c>
       <c r="W34" t="n">
-        <v>207.6809943263733</v>
+        <v>207.6809943263734</v>
       </c>
       <c r="X34" t="n">
         <v>146.8676513788195</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.7426493418771</v>
+        <v>139.7426493418772</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>202.564088277355</v>
+        <v>202.5640882773552</v>
       </c>
       <c r="C35" t="n">
-        <v>185.103138384882</v>
+        <v>185.1031383848822</v>
       </c>
       <c r="D35" t="n">
-        <v>174.5132882345574</v>
+        <v>174.5132882345576</v>
       </c>
       <c r="E35" t="n">
-        <v>201.7606166861362</v>
+        <v>201.7606166861364</v>
       </c>
       <c r="F35" t="n">
-        <v>226.7062923555859</v>
+        <v>226.7062923555861</v>
       </c>
       <c r="G35" t="n">
-        <v>232.3226521373895</v>
+        <v>232.3226521373897</v>
       </c>
       <c r="H35" t="n">
-        <v>130.523736220463</v>
+        <v>130.5237362204632</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>30.62386788468916</v>
+        <v>30.62386788468936</v>
       </c>
       <c r="U35" t="n">
-        <v>70.95107296238136</v>
+        <v>70.95107296238155</v>
       </c>
       <c r="V35" t="n">
-        <v>147.5825050840094</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W35" t="n">
-        <v>169.0712153312875</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X35" t="n">
-        <v>189.5613472923435</v>
+        <v>189.5613472923437</v>
       </c>
       <c r="Y35" t="n">
-        <v>206.0681852699281</v>
+        <v>206.0681852699283</v>
       </c>
     </row>
     <row r="36">
@@ -3351,19 +3351,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>116.5020281971721</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>97.71325251404467</v>
       </c>
       <c r="I36" t="n">
-        <v>37.62587671097612</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>6.799003079515217</v>
       </c>
       <c r="S36" t="n">
-        <v>17.62845394258182</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T36" t="n">
         <v>194.10392297596</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>68.01081795055676</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7303611761521</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S37" t="n">
         <v>202.0474611689562</v>
       </c>
       <c r="T37" t="n">
-        <v>222.5593117402442</v>
+        <v>42.38955835411885</v>
       </c>
       <c r="U37" t="n">
-        <v>162.7210909507497</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V37" t="n">
-        <v>71.96788993770247</v>
+        <v>71.96788993770267</v>
       </c>
       <c r="W37" t="n">
-        <v>106.3532449504655</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.53990200291162</v>
+        <v>45.53990200291182</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.41489996596925</v>
+        <v>38.41489996596945</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.564088277355</v>
+        <v>202.5640882773553</v>
       </c>
       <c r="C38" t="n">
-        <v>185.103138384882</v>
+        <v>185.1031383848823</v>
       </c>
       <c r="D38" t="n">
-        <v>174.5132882345574</v>
+        <v>174.5132882345577</v>
       </c>
       <c r="E38" t="n">
-        <v>201.7606166861362</v>
+        <v>201.7606166861365</v>
       </c>
       <c r="F38" t="n">
-        <v>226.7062923555859</v>
+        <v>226.7062923555862</v>
       </c>
       <c r="G38" t="n">
-        <v>232.3226521373895</v>
+        <v>232.3226521373898</v>
       </c>
       <c r="H38" t="n">
-        <v>130.523736220463</v>
+        <v>130.5237362204633</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>30.62386788468916</v>
+        <v>30.62386788468942</v>
       </c>
       <c r="U38" t="n">
-        <v>70.95107296238136</v>
+        <v>70.95107296238162</v>
       </c>
       <c r="V38" t="n">
-        <v>147.5825050840094</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W38" t="n">
-        <v>169.0712153312875</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X38" t="n">
-        <v>189.5613472923435</v>
+        <v>189.5613472923438</v>
       </c>
       <c r="Y38" t="n">
-        <v>206.0681852699281</v>
+        <v>206.0681852699283</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>58.94605342707064</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>37.62587671097612</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6.799003079515217</v>
       </c>
       <c r="S39" t="n">
-        <v>24.42745702209691</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T39" t="n">
         <v>194.10392297596</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>202.0474611689562</v>
       </c>
       <c r="T40" t="n">
-        <v>110.7381495088643</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U40" t="n">
-        <v>106.0805149786032</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V40" t="n">
-        <v>71.96788993770247</v>
+        <v>71.96788993770272</v>
       </c>
       <c r="W40" t="n">
-        <v>106.3532449504655</v>
+        <v>106.3532449504657</v>
       </c>
       <c r="X40" t="n">
-        <v>45.53990200291162</v>
+        <v>45.53990200291187</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>78.42165873286065</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.564088277355</v>
+        <v>202.5640882773553</v>
       </c>
       <c r="C41" t="n">
-        <v>185.103138384882</v>
+        <v>185.1031383848823</v>
       </c>
       <c r="D41" t="n">
-        <v>174.5132882345574</v>
+        <v>174.5132882345577</v>
       </c>
       <c r="E41" t="n">
-        <v>201.7606166861362</v>
+        <v>201.7606166861365</v>
       </c>
       <c r="F41" t="n">
-        <v>226.7062923555859</v>
+        <v>226.7062923555862</v>
       </c>
       <c r="G41" t="n">
-        <v>232.3226521373895</v>
+        <v>232.3226521373898</v>
       </c>
       <c r="H41" t="n">
-        <v>130.523736220463</v>
+        <v>130.5237362204633</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>30.62386788468916</v>
+        <v>30.62386788468942</v>
       </c>
       <c r="U41" t="n">
-        <v>70.95107296238136</v>
+        <v>70.95107296238162</v>
       </c>
       <c r="V41" t="n">
-        <v>147.5825050840094</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W41" t="n">
-        <v>169.0712153312875</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X41" t="n">
-        <v>189.5613472923435</v>
+        <v>189.5613472923438</v>
       </c>
       <c r="Y41" t="n">
-        <v>206.0681852699281</v>
+        <v>206.0681852699283</v>
       </c>
     </row>
     <row r="42">
@@ -3822,16 +3822,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>80.75127689760707</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>55.25433065355879</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>6.799003079515217</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T42" t="n">
         <v>194.10392297596</v>
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J43" t="n">
-        <v>4.233474627595754</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>71.08198364939274</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09671155421385</v>
+        <v>21.87770778283096</v>
       </c>
       <c r="T43" t="n">
-        <v>42.38955835411865</v>
+        <v>42.3895583541189</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2502683647287</v>
+        <v>106.0805149786034</v>
       </c>
       <c r="V43" t="n">
-        <v>71.96788993770247</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>45.53990200291187</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.564088277355</v>
+        <v>202.5640882773553</v>
       </c>
       <c r="C44" t="n">
-        <v>185.103138384882</v>
+        <v>185.1031383848823</v>
       </c>
       <c r="D44" t="n">
-        <v>174.5132882345574</v>
+        <v>174.5132882345577</v>
       </c>
       <c r="E44" t="n">
-        <v>201.7606166861362</v>
+        <v>201.7606166861365</v>
       </c>
       <c r="F44" t="n">
-        <v>226.7062923555859</v>
+        <v>226.7062923555862</v>
       </c>
       <c r="G44" t="n">
-        <v>232.3226521373895</v>
+        <v>232.322652137389</v>
       </c>
       <c r="H44" t="n">
-        <v>130.523736220463</v>
+        <v>130.5237362204633</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>30.62386788468916</v>
+        <v>30.62386788468942</v>
       </c>
       <c r="U44" t="n">
-        <v>70.95107296238135</v>
+        <v>70.95107296238162</v>
       </c>
       <c r="V44" t="n">
-        <v>147.5825050840103</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W44" t="n">
-        <v>169.0712153312875</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X44" t="n">
-        <v>189.5613472923435</v>
+        <v>189.5613472923438</v>
       </c>
       <c r="Y44" t="n">
-        <v>206.0681852699281</v>
+        <v>206.0681852699283</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>37.62587671097612</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.799003079515217</v>
       </c>
       <c r="S45" t="n">
         <v>143.7533427911297</v>
       </c>
       <c r="T45" t="n">
-        <v>74.7780372069282</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U45" t="n">
         <v>225.8424570692415</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>144.3015750118567</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.233474627595754</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S46" t="n">
-        <v>21.8777077828307</v>
+        <v>21.87770778283096</v>
       </c>
       <c r="T46" t="n">
-        <v>42.38955835411865</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U46" t="n">
-        <v>106.0805149786032</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V46" t="n">
-        <v>71.96788993770247</v>
+        <v>71.96788993770272</v>
       </c>
       <c r="W46" t="n">
-        <v>155.3872345814477</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>45.53990200291162</v>
+        <v>113.5507199534683</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>38.41489996596951</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>587.878800708088</v>
+        <v>572.4884555870598</v>
       </c>
       <c r="C11" t="n">
-        <v>587.878800708088</v>
+        <v>347.7137453561454</v>
       </c>
       <c r="D11" t="n">
-        <v>373.8009088108348</v>
+        <v>133.6358534588921</v>
       </c>
       <c r="E11" t="n">
-        <v>373.8009088108348</v>
+        <v>133.6358534588921</v>
       </c>
       <c r="F11" t="n">
-        <v>107.0028107307248</v>
+        <v>28.99787525576259</v>
       </c>
       <c r="G11" t="n">
-        <v>107.0028107307248</v>
+        <v>28.99787525576259</v>
       </c>
       <c r="H11" t="n">
-        <v>28.99787525576266</v>
+        <v>28.99787525576259</v>
       </c>
       <c r="I11" t="n">
-        <v>28.99787525576266</v>
+        <v>28.99787525576259</v>
       </c>
       <c r="J11" t="n">
-        <v>85.90061049936617</v>
+        <v>85.90061049936594</v>
       </c>
       <c r="K11" t="n">
-        <v>221.9215783630814</v>
+        <v>221.9215783630812</v>
       </c>
       <c r="L11" t="n">
-        <v>427.5693786526961</v>
+        <v>427.5693786526949</v>
       </c>
       <c r="M11" t="n">
-        <v>688.0616180080109</v>
+        <v>688.0616180080092</v>
       </c>
       <c r="N11" t="n">
-        <v>957.3827025111791</v>
+        <v>957.3827025111771</v>
       </c>
       <c r="O11" t="n">
-        <v>1198.359704313248</v>
+        <v>1198.359704313245</v>
       </c>
       <c r="P11" t="n">
-        <v>1369.526999292381</v>
+        <v>1369.526999292378</v>
       </c>
       <c r="Q11" t="n">
-        <v>1449.893762788133</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="R11" t="n">
-        <v>1449.893762788133</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="S11" t="n">
-        <v>1449.893762788133</v>
+        <v>1447.637499470148</v>
       </c>
       <c r="T11" t="n">
-        <v>1381.158719729131</v>
+        <v>1378.902456411145</v>
       </c>
       <c r="U11" t="n">
-        <v>1271.689126086601</v>
+        <v>1269.432862768616</v>
       </c>
       <c r="V11" t="n">
-        <v>1271.689126086601</v>
+        <v>1269.432862768616</v>
       </c>
       <c r="W11" t="n">
-        <v>1063.108277525985</v>
+        <v>1060.852014207999</v>
       </c>
       <c r="X11" t="n">
-        <v>833.8303259744023</v>
+        <v>1060.852014207999</v>
       </c>
       <c r="Y11" t="n">
-        <v>587.878800708088</v>
+        <v>814.9004889416842</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>400.8118198723002</v>
+        <v>225.5939070482196</v>
       </c>
       <c r="C12" t="n">
-        <v>370.5465973006706</v>
+        <v>51.14087776709255</v>
       </c>
       <c r="D12" t="n">
-        <v>365.7999943489168</v>
+        <v>46.39427481533856</v>
       </c>
       <c r="E12" t="n">
-        <v>350.7503460529587</v>
+        <v>31.34462651938034</v>
       </c>
       <c r="F12" t="n">
-        <v>204.2157880798437</v>
+        <v>28.99787525576259</v>
       </c>
       <c r="G12" t="n">
-        <v>67.00381132745565</v>
+        <v>28.99787525576259</v>
       </c>
       <c r="H12" t="n">
-        <v>67.00381132745565</v>
+        <v>28.99787525576259</v>
       </c>
       <c r="I12" t="n">
-        <v>28.99787525576266</v>
+        <v>28.99787525576259</v>
       </c>
       <c r="J12" t="n">
-        <v>44.07090758709832</v>
+        <v>44.07090758709808</v>
       </c>
       <c r="K12" t="n">
-        <v>147.9879453635425</v>
+        <v>147.987945363542</v>
       </c>
       <c r="L12" t="n">
-        <v>334.0397679681053</v>
+        <v>394.3699132666467</v>
       </c>
       <c r="M12" t="n">
-        <v>692.8884742581682</v>
+        <v>630.8404829208965</v>
       </c>
       <c r="N12" t="n">
-        <v>1033.815940760727</v>
+        <v>887.9783698295012</v>
       </c>
       <c r="O12" t="n">
-        <v>1246.827076119566</v>
+        <v>1246.827076119563</v>
       </c>
       <c r="P12" t="n">
-        <v>1398.454225395177</v>
+        <v>1398.454225395173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1449.893762788133</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="R12" t="n">
-        <v>1443.026082909835</v>
+        <v>1443.026082909831</v>
       </c>
       <c r="S12" t="n">
-        <v>1321.46545665673</v>
+        <v>1442.008492860612</v>
       </c>
       <c r="T12" t="n">
-        <v>1125.400887994144</v>
+        <v>1245.943924198026</v>
       </c>
       <c r="U12" t="n">
-        <v>1041.465000694307</v>
+        <v>1154.622701289221</v>
       </c>
       <c r="V12" t="n">
-        <v>950.5006991720618</v>
+        <v>919.4705930574787</v>
       </c>
       <c r="W12" t="n">
-        <v>696.2633424438602</v>
+        <v>809.4210430387743</v>
       </c>
       <c r="X12" t="n">
-        <v>632.5996489478248</v>
+        <v>601.5695428332415</v>
       </c>
       <c r="Y12" t="n">
-        <v>424.8393501828708</v>
+        <v>393.8092440682876</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.8737879837273</v>
+        <v>98.68598127423067</v>
       </c>
       <c r="C13" t="n">
-        <v>218.1254117653178</v>
+        <v>73.93760505582105</v>
       </c>
       <c r="D13" t="n">
-        <v>212.1965790624795</v>
+        <v>68.00877235298262</v>
       </c>
       <c r="E13" t="n">
-        <v>64.28348548008643</v>
+        <v>64.2834854800868</v>
       </c>
       <c r="F13" t="n">
-        <v>61.58134469167349</v>
+        <v>61.58134469167372</v>
       </c>
       <c r="G13" t="n">
-        <v>37.35464516263338</v>
+        <v>37.35464516263347</v>
       </c>
       <c r="H13" t="n">
-        <v>28.99787525576266</v>
+        <v>28.99787525576259</v>
       </c>
       <c r="I13" t="n">
-        <v>28.99787525576266</v>
+        <v>28.99787525576259</v>
       </c>
       <c r="J13" t="n">
-        <v>28.99787525576266</v>
+        <v>28.99787525576259</v>
       </c>
       <c r="K13" t="n">
-        <v>151.9473816770446</v>
+        <v>151.9473816770443</v>
       </c>
       <c r="L13" t="n">
-        <v>364.8068544657378</v>
+        <v>364.8068544657374</v>
       </c>
       <c r="M13" t="n">
-        <v>599.6264465155755</v>
+        <v>599.6264465155748</v>
       </c>
       <c r="N13" t="n">
-        <v>834.297169935916</v>
+        <v>834.2971699359151</v>
       </c>
       <c r="O13" t="n">
         <v>1035.037270057343</v>
       </c>
       <c r="P13" t="n">
-        <v>1183.284422406252</v>
+        <v>1183.284422406251</v>
       </c>
       <c r="Q13" t="n">
-        <v>1202.48798628211</v>
+        <v>1202.487986282109</v>
       </c>
       <c r="R13" t="n">
-        <v>1202.48798628211</v>
+        <v>1080.658275338122</v>
       </c>
       <c r="S13" t="n">
-        <v>1142.5874483765</v>
+        <v>1020.757737432512</v>
       </c>
       <c r="T13" t="n">
-        <v>917.7800627802939</v>
+        <v>940.1381585458028</v>
       </c>
       <c r="U13" t="n">
-        <v>772.8261842728936</v>
+        <v>650.996473328905</v>
       </c>
       <c r="V13" t="n">
-        <v>585.9703260544854</v>
+        <v>540.4997918325155</v>
       </c>
       <c r="W13" t="n">
-        <v>440.7409627270222</v>
+        <v>395.2704285050521</v>
       </c>
       <c r="X13" t="n">
-        <v>356.9392185385022</v>
+        <v>212.7514118290059</v>
       </c>
       <c r="Y13" t="n">
-        <v>280.3344461044696</v>
+        <v>136.1466393949731</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1204.28631919826</v>
+        <v>762.1711294555344</v>
       </c>
       <c r="C14" t="n">
-        <v>979.5116089673458</v>
+        <v>537.3964192246199</v>
       </c>
       <c r="D14" t="n">
-        <v>979.5116089673458</v>
+        <v>537.3964192246199</v>
       </c>
       <c r="E14" t="n">
-        <v>737.911163078599</v>
+        <v>295.7959733358729</v>
       </c>
       <c r="F14" t="n">
-        <v>471.1130649984888</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="G14" t="n">
-        <v>198.641876229688</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="H14" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I14" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J14" t="n">
-        <v>85.90061049936594</v>
+        <v>85.9006104993656</v>
       </c>
       <c r="K14" t="n">
-        <v>221.9215783630812</v>
+        <v>221.9215783630804</v>
       </c>
       <c r="L14" t="n">
-        <v>427.5693786526955</v>
+        <v>427.5693786526945</v>
       </c>
       <c r="M14" t="n">
-        <v>688.0616180080098</v>
+        <v>688.0616180080087</v>
       </c>
       <c r="N14" t="n">
-        <v>957.3827025111776</v>
+        <v>957.3827025111767</v>
       </c>
       <c r="O14" t="n">
-        <v>1198.359704313246</v>
+        <v>1198.359704313245</v>
       </c>
       <c r="P14" t="n">
         <v>1369.526999292378</v>
       </c>
       <c r="Q14" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="R14" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="S14" t="n">
-        <v>1447.637499470149</v>
+        <v>1447.637499470148</v>
       </c>
       <c r="T14" t="n">
-        <v>1433.564270749842</v>
+        <v>1378.902456411145</v>
       </c>
       <c r="U14" t="n">
-        <v>1433.564270749842</v>
+        <v>1269.432862768615</v>
       </c>
       <c r="V14" t="n">
-        <v>1433.564270749842</v>
+        <v>1082.557782134543</v>
       </c>
       <c r="W14" t="n">
-        <v>1433.564270749842</v>
+        <v>1082.557782134543</v>
       </c>
       <c r="X14" t="n">
-        <v>1204.28631919826</v>
+        <v>1082.557782134543</v>
       </c>
       <c r="Y14" t="n">
-        <v>1204.28631919826</v>
+        <v>1004.583162810159</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>794.8635183130961</v>
+        <v>225.5939070482196</v>
       </c>
       <c r="C15" t="n">
-        <v>620.4104890319691</v>
+        <v>195.3286844765898</v>
       </c>
       <c r="D15" t="n">
-        <v>471.4760793707177</v>
+        <v>190.5820815248358</v>
       </c>
       <c r="E15" t="n">
-        <v>312.2386243652622</v>
+        <v>31.34462651938033</v>
       </c>
       <c r="F15" t="n">
-        <v>165.7040663921472</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="G15" t="n">
-        <v>165.7040663921472</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="H15" t="n">
-        <v>67.00381132745565</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I15" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J15" t="n">
-        <v>168.9010325741028</v>
+        <v>44.07090758709807</v>
       </c>
       <c r="K15" t="n">
-        <v>272.8180703505467</v>
+        <v>147.987945363542</v>
       </c>
       <c r="L15" t="n">
-        <v>458.8698929551091</v>
+        <v>506.836651653604</v>
       </c>
       <c r="M15" t="n">
-        <v>695.3404626093588</v>
+        <v>743.3072213078538</v>
       </c>
       <c r="N15" t="n">
-        <v>952.4783495179635</v>
+        <v>1033.815940760723</v>
       </c>
       <c r="O15" t="n">
-        <v>1165.489484876803</v>
+        <v>1246.827076119563</v>
       </c>
       <c r="P15" t="n">
-        <v>1317.116634152413</v>
+        <v>1398.454225395173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="R15" t="n">
         <v>1443.026082909831</v>
       </c>
       <c r="S15" t="n">
-        <v>1442.008492860612</v>
+        <v>1297.820686151114</v>
       </c>
       <c r="T15" t="n">
-        <v>1390.131730907523</v>
+        <v>1238.558588589059</v>
       </c>
       <c r="U15" t="n">
-        <v>1306.195843607686</v>
+        <v>1010.434894579724</v>
       </c>
       <c r="V15" t="n">
-        <v>1215.231542085441</v>
+        <v>919.4705930574787</v>
       </c>
       <c r="W15" t="n">
-        <v>1105.181992066737</v>
+        <v>809.4210430387743</v>
       </c>
       <c r="X15" t="n">
-        <v>1041.518298570701</v>
+        <v>601.5695428332415</v>
       </c>
       <c r="Y15" t="n">
-        <v>963.078855333164</v>
+        <v>393.8092440682876</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.9622182718013</v>
+        <v>98.68598127423067</v>
       </c>
       <c r="C16" t="n">
-        <v>78.21384205339182</v>
+        <v>73.93760505582104</v>
       </c>
       <c r="D16" t="n">
-        <v>72.28500935055352</v>
+        <v>68.0087723529826</v>
       </c>
       <c r="E16" t="n">
-        <v>68.55972247765784</v>
+        <v>64.28348548008678</v>
       </c>
       <c r="F16" t="n">
-        <v>65.85758168924491</v>
+        <v>61.58134469167371</v>
       </c>
       <c r="G16" t="n">
-        <v>41.63088216020479</v>
+        <v>37.35464516263346</v>
       </c>
       <c r="H16" t="n">
-        <v>33.27411225333406</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I16" t="n">
-        <v>33.27411225333406</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J16" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="K16" t="n">
         <v>151.9473816770443</v>
@@ -5458,28 +5458,28 @@
         <v>1202.487986282109</v>
       </c>
       <c r="R16" t="n">
-        <v>1202.487986282109</v>
+        <v>1080.658275338122</v>
       </c>
       <c r="S16" t="n">
-        <v>998.3996416670012</v>
+        <v>922.0404649449855</v>
       </c>
       <c r="T16" t="n">
-        <v>773.592256070795</v>
+        <v>841.4208860582766</v>
       </c>
       <c r="U16" t="n">
-        <v>628.6383775633947</v>
+        <v>552.2792008413788</v>
       </c>
       <c r="V16" t="n">
-        <v>518.1416960670052</v>
+        <v>441.7825193449893</v>
       </c>
       <c r="W16" t="n">
-        <v>372.912332739542</v>
+        <v>296.553156017526</v>
       </c>
       <c r="X16" t="n">
-        <v>289.1105885510221</v>
+        <v>212.7514118290059</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.4228763925436</v>
+        <v>136.1466393949731</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>705.1570571130413</v>
+        <v>705.1570571130397</v>
       </c>
       <c r="C17" t="n">
-        <v>660.9580574109104</v>
+        <v>560.0207347712341</v>
       </c>
       <c r="D17" t="n">
-        <v>660.9580574109104</v>
+        <v>560.0207347712341</v>
       </c>
       <c r="E17" t="n">
-        <v>498.9959994112724</v>
+        <v>398.0586767715959</v>
       </c>
       <c r="F17" t="n">
-        <v>311.8362892202709</v>
+        <v>311.8362892202713</v>
       </c>
       <c r="G17" t="n">
-        <v>119.0034883405792</v>
+        <v>119.0034883405793</v>
       </c>
       <c r="H17" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I17" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J17" t="n">
-        <v>85.90061049936577</v>
+        <v>85.90061049936575</v>
       </c>
       <c r="K17" t="n">
-        <v>221.9215783630805</v>
+        <v>221.9215783630801</v>
       </c>
       <c r="L17" t="n">
-        <v>427.5693786526947</v>
+        <v>427.5693786526942</v>
       </c>
       <c r="M17" t="n">
-        <v>688.061618008009</v>
+        <v>688.0616180080085</v>
       </c>
       <c r="N17" t="n">
-        <v>957.3827025111768</v>
+        <v>957.3827025111764</v>
       </c>
       <c r="O17" t="n">
-        <v>1198.359704313245</v>
+        <v>1198.359704313244</v>
       </c>
       <c r="P17" t="n">
-        <v>1369.526999292378</v>
+        <v>1369.526999292377</v>
       </c>
       <c r="Q17" t="n">
         <v>1449.893762788129</v>
       </c>
       <c r="R17" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="S17" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="T17" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="U17" t="n">
-        <v>1420.062557034709</v>
+        <v>1420.062557034708</v>
       </c>
       <c r="V17" t="n">
-        <v>1312.825864289744</v>
+        <v>1312.825864289743</v>
       </c>
       <c r="W17" t="n">
-        <v>1183.883403618236</v>
+        <v>1183.883403618235</v>
       </c>
       <c r="X17" t="n">
-        <v>1034.243839955762</v>
+        <v>1034.243839955761</v>
       </c>
       <c r="Y17" t="n">
-        <v>867.930702578557</v>
+        <v>867.9307025785555</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>658.1573271767114</v>
+        <v>203.4509045368896</v>
       </c>
       <c r="C18" t="n">
-        <v>483.7042978955844</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="D18" t="n">
-        <v>334.7698882343331</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="E18" t="n">
-        <v>175.5324332288776</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="F18" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="G18" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="H18" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I18" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J18" t="n">
-        <v>44.07090758709808</v>
+        <v>104.4010528856397</v>
       </c>
       <c r="K18" t="n">
-        <v>354.1556615933072</v>
+        <v>208.3180906620836</v>
       </c>
       <c r="L18" t="n">
-        <v>540.2074841978695</v>
+        <v>394.3699132666459</v>
       </c>
       <c r="M18" t="n">
-        <v>776.6780538521192</v>
+        <v>630.8404829208957</v>
       </c>
       <c r="N18" t="n">
-        <v>1033.815940760724</v>
+        <v>887.9783698295004</v>
       </c>
       <c r="O18" t="n">
-        <v>1246.827076119563</v>
+        <v>1246.827076119562</v>
       </c>
       <c r="P18" t="n">
-        <v>1398.454225395173</v>
+        <v>1398.454225395172</v>
       </c>
       <c r="Q18" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="R18" t="n">
-        <v>1449.89376278813</v>
+        <v>1443.02608290983</v>
       </c>
       <c r="S18" t="n">
-        <v>1449.89376278813</v>
+        <v>1297.820686151113</v>
       </c>
       <c r="T18" t="n">
-        <v>1449.89376278813</v>
+        <v>1101.756117488528</v>
       </c>
       <c r="U18" t="n">
-        <v>1445.596263377401</v>
+        <v>873.6324234791929</v>
       </c>
       <c r="V18" t="n">
-        <v>1434.270349744264</v>
+        <v>638.4803152474501</v>
       </c>
       <c r="W18" t="n">
-        <v>1241.984463167266</v>
+        <v>608.0691531178545</v>
       </c>
       <c r="X18" t="n">
-        <v>1034.132962961733</v>
+        <v>400.2176529123217</v>
       </c>
       <c r="Y18" t="n">
-        <v>826.3726641967794</v>
+        <v>203.4509045368896</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.2682449148463</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="C19" t="n">
-        <v>642.3320619869394</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="D19" t="n">
-        <v>492.2154225746036</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="E19" t="n">
-        <v>344.3023289922105</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="F19" t="n">
-        <v>197.4123814943001</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="G19" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="H19" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I19" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J19" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="K19" t="n">
         <v>151.9473816770443</v>
@@ -5695,28 +5695,28 @@
         <v>1202.487986282109</v>
       </c>
       <c r="R19" t="n">
-        <v>1202.487986282109</v>
+        <v>1080.658275338122</v>
       </c>
       <c r="S19" t="n">
-        <v>1202.487986282109</v>
+        <v>1080.658275338122</v>
       </c>
       <c r="T19" t="n">
-        <v>1201.506795284508</v>
+        <v>1048.053039845159</v>
       </c>
       <c r="U19" t="n">
-        <v>912.3651100676107</v>
+        <v>982.7375492268671</v>
       </c>
       <c r="V19" t="n">
-        <v>881.5068164603299</v>
+        <v>728.0530610209803</v>
       </c>
       <c r="W19" t="n">
-        <v>815.4316012142574</v>
+        <v>438.6358909840196</v>
       </c>
       <c r="X19" t="n">
-        <v>811.2682449148463</v>
+        <v>210.6463400860023</v>
       </c>
       <c r="Y19" t="n">
-        <v>811.2682449148463</v>
+        <v>210.6463400860023</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>778.5718257612224</v>
+        <v>705.1570571130397</v>
       </c>
       <c r="C20" t="n">
-        <v>633.4355034194168</v>
+        <v>560.0207347712341</v>
       </c>
       <c r="D20" t="n">
-        <v>498.9959994112724</v>
+        <v>425.5812307630897</v>
       </c>
       <c r="E20" t="n">
-        <v>498.9959994112724</v>
+        <v>263.6191727634516</v>
       </c>
       <c r="F20" t="n">
-        <v>311.8362892202711</v>
+        <v>119.0034883405794</v>
       </c>
       <c r="G20" t="n">
-        <v>119.0034883405792</v>
+        <v>119.0034883405794</v>
       </c>
       <c r="H20" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I20" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J20" t="n">
-        <v>85.90061049936577</v>
+        <v>85.90061049936575</v>
       </c>
       <c r="K20" t="n">
-        <v>221.921578363081</v>
+        <v>221.9215783630805</v>
       </c>
       <c r="L20" t="n">
-        <v>427.5693786526951</v>
+        <v>427.5693786526947</v>
       </c>
       <c r="M20" t="n">
-        <v>688.0616180080094</v>
+        <v>688.061618008009</v>
       </c>
       <c r="N20" t="n">
-        <v>957.3827025111773</v>
+        <v>957.3827025111768</v>
       </c>
       <c r="O20" t="n">
         <v>1198.359704313245</v>
@@ -5771,31 +5771,31 @@
         <v>1369.526999292378</v>
       </c>
       <c r="Q20" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="R20" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="S20" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="T20" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="U20" t="n">
-        <v>1420.062557034709</v>
+        <v>1420.062557034708</v>
       </c>
       <c r="V20" t="n">
-        <v>1386.240632937925</v>
+        <v>1312.825864289743</v>
       </c>
       <c r="W20" t="n">
-        <v>1257.298172266417</v>
+        <v>1183.883403618235</v>
       </c>
       <c r="X20" t="n">
-        <v>1107.658608603944</v>
+        <v>1034.243839955761</v>
       </c>
       <c r="Y20" t="n">
-        <v>941.3454712267379</v>
+        <v>867.9307025785555</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>352.3853141981409</v>
+        <v>400.3088543529006</v>
       </c>
       <c r="C21" t="n">
-        <v>177.9322849170139</v>
+        <v>225.8558250717736</v>
       </c>
       <c r="D21" t="n">
-        <v>28.99787525576259</v>
+        <v>225.8558250717736</v>
       </c>
       <c r="E21" t="n">
-        <v>28.99787525576259</v>
+        <v>225.8558250717736</v>
       </c>
       <c r="F21" t="n">
-        <v>28.99787525576259</v>
+        <v>79.32126709865855</v>
       </c>
       <c r="G21" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="H21" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I21" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J21" t="n">
-        <v>127.8604871810509</v>
+        <v>168.9010325741028</v>
       </c>
       <c r="K21" t="n">
-        <v>231.7775249574948</v>
+        <v>272.8180703505467</v>
       </c>
       <c r="L21" t="n">
-        <v>417.8293475620571</v>
+        <v>458.8698929551091</v>
       </c>
       <c r="M21" t="n">
-        <v>776.6780538521192</v>
+        <v>776.6780538521183</v>
       </c>
       <c r="N21" t="n">
-        <v>1033.815940760724</v>
+        <v>1033.815940760723</v>
       </c>
       <c r="O21" t="n">
-        <v>1246.827076119563</v>
+        <v>1246.827076119562</v>
       </c>
       <c r="P21" t="n">
-        <v>1398.454225395173</v>
+        <v>1398.454225395172</v>
       </c>
       <c r="Q21" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="R21" t="n">
-        <v>1449.89376278813</v>
+        <v>1443.02608290983</v>
       </c>
       <c r="S21" t="n">
-        <v>1449.89376278813</v>
+        <v>1297.820686151113</v>
       </c>
       <c r="T21" t="n">
-        <v>1261.684077539301</v>
+        <v>1101.756117488528</v>
       </c>
       <c r="U21" t="n">
-        <v>1257.386578128572</v>
+        <v>873.6324234791929</v>
       </c>
       <c r="V21" t="n">
-        <v>1022.234469896829</v>
+        <v>638.4803152474501</v>
       </c>
       <c r="W21" t="n">
-        <v>767.9971131686277</v>
+        <v>608.0691531178545</v>
       </c>
       <c r="X21" t="n">
-        <v>560.1456129630949</v>
+        <v>608.0691531178545</v>
       </c>
       <c r="Y21" t="n">
-        <v>352.3853141981409</v>
+        <v>400.3088543529006</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>853.9302144909308</v>
+        <v>140.2739009267457</v>
       </c>
       <c r="C22" t="n">
-        <v>684.9940315630239</v>
+        <v>140.2739009267457</v>
       </c>
       <c r="D22" t="n">
-        <v>534.8773921506881</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="E22" t="n">
-        <v>386.964298568295</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="F22" t="n">
-        <v>240.0743510703847</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="G22" t="n">
-        <v>185.8186888697022</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="H22" t="n">
-        <v>33.27411225333406</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I22" t="n">
-        <v>33.27411225333406</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J22" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="K22" t="n">
         <v>151.9473816770443</v>
@@ -5938,22 +5938,22 @@
         <v>1202.487986282109</v>
       </c>
       <c r="T22" t="n">
-        <v>1201.506795284508</v>
+        <v>977.6806006859023</v>
       </c>
       <c r="U22" t="n">
-        <v>1136.191304666217</v>
+        <v>688.5389154690046</v>
       </c>
       <c r="V22" t="n">
-        <v>1105.333011058936</v>
+        <v>657.6806218617237</v>
       </c>
       <c r="W22" t="n">
-        <v>1039.742035620582</v>
+        <v>368.2634518247631</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.578679321171</v>
+        <v>140.2739009267457</v>
       </c>
       <c r="Y22" t="n">
-        <v>1035.578679321171</v>
+        <v>140.2739009267457</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>945.3374924679578</v>
+        <v>945.3374924679591</v>
       </c>
       <c r="C23" t="n">
-        <v>800.2011701261523</v>
+        <v>800.2011701261536</v>
       </c>
       <c r="D23" t="n">
-        <v>665.7616661180082</v>
+        <v>665.7616661180093</v>
       </c>
       <c r="E23" t="n">
-        <v>503.7996081183703</v>
+        <v>503.7996081183715</v>
       </c>
       <c r="F23" t="n">
-        <v>316.6398979273688</v>
+        <v>316.6398979273702</v>
       </c>
       <c r="G23" t="n">
-        <v>123.8070970476776</v>
+        <v>123.8070970476777</v>
       </c>
       <c r="H23" t="n">
-        <v>33.80148396286093</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="I23" t="n">
-        <v>33.80148396286093</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="J23" t="n">
-        <v>90.7042192064641</v>
+        <v>90.70421920646415</v>
       </c>
       <c r="K23" t="n">
-        <v>251.9101729646921</v>
+        <v>462.1020137179997</v>
       </c>
       <c r="L23" t="n">
-        <v>457.5579732543063</v>
+        <v>667.7498140076138</v>
       </c>
       <c r="M23" t="n">
-        <v>718.0502126096205</v>
+        <v>928.2420533629281</v>
       </c>
       <c r="N23" t="n">
-        <v>987.3712971127884</v>
+        <v>1197.563137866096</v>
       </c>
       <c r="O23" t="n">
-        <v>1228.348298914857</v>
+        <v>1438.540139668164</v>
       </c>
       <c r="P23" t="n">
-        <v>1399.515593893989</v>
+        <v>1609.707434647297</v>
       </c>
       <c r="Q23" t="n">
-        <v>1690.074198143046</v>
+        <v>1690.074198143049</v>
       </c>
       <c r="R23" t="n">
-        <v>1690.074198143046</v>
+        <v>1690.074198143049</v>
       </c>
       <c r="S23" t="n">
-        <v>1690.074198143046</v>
+        <v>1690.074198143049</v>
       </c>
       <c r="T23" t="n">
-        <v>1690.074198143046</v>
+        <v>1690.074198143049</v>
       </c>
       <c r="U23" t="n">
-        <v>1660.242992389625</v>
+        <v>1660.242992389627</v>
       </c>
       <c r="V23" t="n">
-        <v>1553.006299644661</v>
+        <v>1553.006299644662</v>
       </c>
       <c r="W23" t="n">
-        <v>1424.063838973153</v>
+        <v>1424.063838973154</v>
       </c>
       <c r="X23" t="n">
-        <v>1274.424275310679</v>
+        <v>1274.424275310681</v>
       </c>
       <c r="Y23" t="n">
-        <v>1108.111137933473</v>
+        <v>1108.111137933475</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>799.6671270201944</v>
+        <v>208.8115949036814</v>
       </c>
       <c r="C24" t="n">
-        <v>625.2140977390674</v>
+        <v>193.0389389683165</v>
       </c>
       <c r="D24" t="n">
-        <v>476.2796880778161</v>
+        <v>193.0389389683165</v>
       </c>
       <c r="E24" t="n">
-        <v>317.0422330723606</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="F24" t="n">
-        <v>170.5076750992456</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="G24" t="n">
-        <v>170.5076750992456</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="H24" t="n">
-        <v>71.80742003455399</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="I24" t="n">
-        <v>33.80148396286093</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="J24" t="n">
-        <v>173.7046412812012</v>
+        <v>62.59736727518802</v>
       </c>
       <c r="K24" t="n">
-        <v>277.6216790576451</v>
+        <v>166.5144050516319</v>
       </c>
       <c r="L24" t="n">
-        <v>463.6735016622074</v>
+        <v>352.5662276561943</v>
       </c>
       <c r="M24" t="n">
-        <v>700.1440713164573</v>
+        <v>589.0367973104441</v>
       </c>
       <c r="N24" t="n">
-        <v>957.2819582250619</v>
+        <v>1007.330161350849</v>
       </c>
       <c r="O24" t="n">
-        <v>1170.293093583901</v>
+        <v>1220.341296709688</v>
       </c>
       <c r="P24" t="n">
-        <v>1430.6581458916</v>
+        <v>1638.634660750092</v>
       </c>
       <c r="Q24" t="n">
-        <v>1690.074198143046</v>
+        <v>1690.074198143049</v>
       </c>
       <c r="R24" t="n">
-        <v>1690.074198143046</v>
+        <v>1683.20651826475</v>
       </c>
       <c r="S24" t="n">
-        <v>1690.074198143046</v>
+        <v>1538.001121506033</v>
       </c>
       <c r="T24" t="n">
-        <v>1690.074198143046</v>
+        <v>1341.936552843447</v>
       </c>
       <c r="U24" t="n">
-        <v>1649.057533372087</v>
+        <v>1113.812858834112</v>
       </c>
       <c r="V24" t="n">
-        <v>1637.731619738951</v>
+        <v>878.6607506023697</v>
       </c>
       <c r="W24" t="n">
-        <v>1383.494263010749</v>
+        <v>624.4233938741681</v>
       </c>
       <c r="X24" t="n">
-        <v>1175.642762805216</v>
+        <v>416.5718936686353</v>
       </c>
       <c r="Y24" t="n">
-        <v>967.8824640402624</v>
+        <v>208.8115949036814</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>470.9001878870697</v>
+        <v>183.9181233751967</v>
       </c>
       <c r="C25" t="n">
-        <v>470.9001878870697</v>
+        <v>183.9181233751967</v>
       </c>
       <c r="D25" t="n">
-        <v>470.9001878870697</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="E25" t="n">
-        <v>470.9001878870697</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="F25" t="n">
-        <v>470.9001878870697</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="G25" t="n">
-        <v>309.3498209462051</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="H25" t="n">
-        <v>156.805244329837</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="I25" t="n">
-        <v>38.07772096043239</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="J25" t="n">
-        <v>33.80148396286093</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="K25" t="n">
         <v>156.7509903841427</v>
       </c>
       <c r="L25" t="n">
-        <v>369.6104631728357</v>
+        <v>369.6104631728358</v>
       </c>
       <c r="M25" t="n">
-        <v>604.4300552226731</v>
+        <v>604.4300552226732</v>
       </c>
       <c r="N25" t="n">
-        <v>839.1007786430134</v>
+        <v>839.1007786430135</v>
       </c>
       <c r="O25" t="n">
         <v>1039.840878764441</v>
@@ -6181,16 +6181,16 @@
         <v>571.5128132321159</v>
       </c>
       <c r="V25" t="n">
-        <v>540.6545196248353</v>
+        <v>540.6545196248351</v>
       </c>
       <c r="W25" t="n">
-        <v>475.0635441864808</v>
+        <v>408.8740588181381</v>
       </c>
       <c r="X25" t="n">
-        <v>470.9001878870697</v>
+        <v>404.7107025187268</v>
       </c>
       <c r="Y25" t="n">
-        <v>470.9001878870697</v>
+        <v>183.9181233751967</v>
       </c>
     </row>
     <row r="26">
@@ -6206,52 +6206,52 @@
         <v>1584.538852590343</v>
       </c>
       <c r="D26" t="n">
-        <v>1305.911541872702</v>
+        <v>1305.911541872701</v>
       </c>
       <c r="E26" t="n">
-        <v>999.7616771635662</v>
+        <v>999.761677163566</v>
       </c>
       <c r="F26" t="n">
-        <v>668.4141602630675</v>
+        <v>668.4141602630672</v>
       </c>
       <c r="G26" t="n">
         <v>331.3935526738783</v>
       </c>
       <c r="H26" t="n">
-        <v>97.20013287956414</v>
+        <v>97.20013287956412</v>
       </c>
       <c r="I26" t="n">
         <v>73.6763334318296</v>
       </c>
       <c r="J26" t="n">
-        <v>297.9847176957858</v>
+        <v>130.5790686754328</v>
       </c>
       <c r="K26" t="n">
-        <v>703.6216883004302</v>
+        <v>587.5039949846007</v>
       </c>
       <c r="L26" t="n">
-        <v>1322.75409099499</v>
+        <v>1206.636397679161</v>
       </c>
       <c r="M26" t="n">
-        <v>1583.246330350305</v>
+        <v>1556.847585313127</v>
       </c>
       <c r="N26" t="n">
-        <v>2285.540870021337</v>
+        <v>2259.142124984159</v>
       </c>
       <c r="O26" t="n">
-        <v>2903.510051273523</v>
+        <v>2877.111306236345</v>
       </c>
       <c r="P26" t="n">
-        <v>3393.258067342423</v>
+        <v>3366.859322305246</v>
       </c>
       <c r="Q26" t="n">
-        <v>3683.81667159148</v>
+        <v>3657.417926554303</v>
       </c>
       <c r="R26" t="n">
         <v>3683.81667159148</v>
       </c>
       <c r="S26" t="n">
-        <v>3617.01098945311</v>
+        <v>3617.010989453111</v>
       </c>
       <c r="T26" t="n">
         <v>3483.72652757372</v>
@@ -6263,13 +6263,13 @@
         <v>3058.283015656339</v>
       </c>
       <c r="W26" t="n">
-        <v>2785.152748275334</v>
+        <v>2785.152748275333</v>
       </c>
       <c r="X26" t="n">
-        <v>2491.325377903363</v>
+        <v>2491.325377903362</v>
       </c>
       <c r="Y26" t="n">
-        <v>2180.82443381666</v>
+        <v>2180.824433816659</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6309,19 @@
         <v>192.666403539609</v>
       </c>
       <c r="L27" t="n">
-        <v>378.7182261441714</v>
+        <v>745.8501679945959</v>
       </c>
       <c r="M27" t="n">
-        <v>1076.236808910921</v>
+        <v>1443.368750761346</v>
       </c>
       <c r="N27" t="n">
-        <v>1807.923646419644</v>
+        <v>1700.506637669951</v>
       </c>
       <c r="O27" t="n">
-        <v>2410.858477862445</v>
+        <v>2303.441469112752</v>
       </c>
       <c r="P27" t="n">
-        <v>2574.79235610803</v>
+        <v>2455.068618388362</v>
       </c>
       <c r="Q27" t="n">
         <v>2626.231893500986</v>
@@ -6382,19 +6382,19 @@
         <v>73.6763334318296</v>
       </c>
       <c r="J28" t="n">
-        <v>147.5387775206253</v>
+        <v>147.5387775206247</v>
       </c>
       <c r="K28" t="n">
-        <v>348.5418679120225</v>
+        <v>348.541867912022</v>
       </c>
       <c r="L28" t="n">
-        <v>639.454924670831</v>
+        <v>639.4549246708306</v>
       </c>
       <c r="M28" t="n">
-        <v>952.3281006907839</v>
+        <v>952.3281006907835</v>
       </c>
       <c r="N28" t="n">
-        <v>1265.05240808124</v>
+        <v>1265.052408081239</v>
       </c>
       <c r="O28" t="n">
         <v>1543.846092172782</v>
@@ -6446,46 +6446,46 @@
         <v>1305.911541872701</v>
       </c>
       <c r="E29" t="n">
-        <v>999.7616771635661</v>
+        <v>999.761677163566</v>
       </c>
       <c r="F29" t="n">
         <v>668.4141602630673</v>
       </c>
       <c r="G29" t="n">
-        <v>331.393552673878</v>
+        <v>331.3935526738778</v>
       </c>
       <c r="H29" t="n">
-        <v>97.20013287956415</v>
+        <v>97.20013287956414</v>
       </c>
       <c r="I29" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182962</v>
       </c>
       <c r="J29" t="n">
         <v>297.9847176957858</v>
       </c>
       <c r="K29" t="n">
-        <v>754.9096440049536</v>
+        <v>434.0056855595006</v>
       </c>
       <c r="L29" t="n">
-        <v>1374.042046699514</v>
+        <v>1053.138088254061</v>
       </c>
       <c r="M29" t="n">
-        <v>2079.552684212732</v>
+        <v>1758.648725767279</v>
       </c>
       <c r="N29" t="n">
-        <v>2348.8737687159</v>
+        <v>2460.943265438311</v>
       </c>
       <c r="O29" t="n">
-        <v>2966.842949968086</v>
+        <v>2877.111306236346</v>
       </c>
       <c r="P29" t="n">
-        <v>3456.590966036986</v>
+        <v>3366.859322305246</v>
       </c>
       <c r="Q29" t="n">
-        <v>3683.81667159148</v>
+        <v>3657.417926554303</v>
       </c>
       <c r="R29" t="n">
-        <v>3683.81667159148</v>
+        <v>3683.816671591481</v>
       </c>
       <c r="S29" t="n">
         <v>3617.01098945311</v>
@@ -6494,16 +6494,16 @@
         <v>3483.726527573719</v>
       </c>
       <c r="U29" t="n">
-        <v>3309.7075151108</v>
+        <v>3309.707515110801</v>
       </c>
       <c r="V29" t="n">
-        <v>3058.283015656338</v>
+        <v>3058.283015656339</v>
       </c>
       <c r="W29" t="n">
-        <v>2785.152748275333</v>
+        <v>2785.152748275334</v>
       </c>
       <c r="X29" t="n">
-        <v>2491.325377903362</v>
+        <v>2491.325377903363</v>
       </c>
       <c r="Y29" t="n">
         <v>2180.824433816659</v>
@@ -6537,28 +6537,28 @@
         <v>111.6822695035227</v>
       </c>
       <c r="I30" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182962</v>
       </c>
       <c r="J30" t="n">
-        <v>213.5794907501698</v>
+        <v>88.7493657631651</v>
       </c>
       <c r="K30" t="n">
-        <v>579.3171131690665</v>
+        <v>454.4869881820618</v>
       </c>
       <c r="L30" t="n">
-        <v>1132.500877624053</v>
+        <v>640.5388107866241</v>
       </c>
       <c r="M30" t="n">
-        <v>1429.761528752947</v>
+        <v>877.0093804408739</v>
       </c>
       <c r="N30" t="n">
-        <v>1686.899415661552</v>
+        <v>1504.95223443608</v>
       </c>
       <c r="O30" t="n">
-        <v>1899.910551020391</v>
+        <v>2107.887065878882</v>
       </c>
       <c r="P30" t="n">
-        <v>2366.815841249539</v>
+        <v>2574.79235610803</v>
       </c>
       <c r="Q30" t="n">
         <v>2626.231893500986</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>569.750087852925</v>
+        <v>569.7500878529247</v>
       </c>
       <c r="C31" t="n">
-        <v>480.4522928141268</v>
+        <v>480.4522928141265</v>
       </c>
       <c r="D31" t="n">
-        <v>409.9740412908999</v>
+        <v>409.9740412908995</v>
       </c>
       <c r="E31" t="n">
-        <v>341.6993355976155</v>
+        <v>341.6993355976152</v>
       </c>
       <c r="F31" t="n">
-        <v>274.4477759888139</v>
+        <v>274.4477759888136</v>
       </c>
       <c r="G31" t="n">
-        <v>185.6716576393852</v>
+        <v>185.6716576393848</v>
       </c>
       <c r="H31" t="n">
         <v>112.7654689121254</v>
       </c>
       <c r="I31" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182962</v>
       </c>
       <c r="J31" t="n">
         <v>147.5387775206253</v>
       </c>
       <c r="K31" t="n">
-        <v>348.5418679120224</v>
+        <v>348.5418679120226</v>
       </c>
       <c r="L31" t="n">
-        <v>639.4549246708309</v>
+        <v>639.4549246708311</v>
       </c>
       <c r="M31" t="n">
-        <v>952.3281006907839</v>
+        <v>952.328100690784</v>
       </c>
       <c r="N31" t="n">
-        <v>1265.05240808124</v>
+        <v>1265.052408081239</v>
       </c>
       <c r="O31" t="n">
-        <v>1543.846092172783</v>
+        <v>1543.846092172782</v>
       </c>
       <c r="P31" t="n">
         <v>1770.146828491806</v>
       </c>
       <c r="Q31" t="n">
-        <v>1867.40397633778</v>
+        <v>1867.403976337779</v>
       </c>
       <c r="R31" t="n">
         <v>1825.212653282901</v>
       </c>
       <c r="S31" t="n">
-        <v>1700.762696556903</v>
+        <v>1700.762696556902</v>
       </c>
       <c r="T31" t="n">
-        <v>1555.593698849805</v>
+        <v>1555.593698849804</v>
       </c>
       <c r="U31" t="n">
         <v>1346.090401522016</v>
       </c>
       <c r="V31" t="n">
-        <v>1171.044301205238</v>
+        <v>1171.044301205237</v>
       </c>
       <c r="W31" t="n">
-        <v>961.2655190573862</v>
+        <v>961.2655190573855</v>
       </c>
       <c r="X31" t="n">
-        <v>812.9143560484775</v>
+        <v>812.914356048477</v>
       </c>
       <c r="Y31" t="n">
-        <v>671.760164794056</v>
+        <v>671.7601647940556</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>1873.862981641646</v>
       </c>
       <c r="C32" t="n">
-        <v>1584.538852590343</v>
+        <v>1584.538852590344</v>
       </c>
       <c r="D32" t="n">
         <v>1305.911541872702</v>
@@ -6686,16 +6686,16 @@
         <v>999.7616771635662</v>
       </c>
       <c r="F32" t="n">
-        <v>668.4141602630673</v>
+        <v>668.4141602630675</v>
       </c>
       <c r="G32" t="n">
         <v>331.393552673878</v>
       </c>
       <c r="H32" t="n">
-        <v>97.20013287956414</v>
+        <v>97.20013287956421</v>
       </c>
       <c r="I32" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J32" t="n">
         <v>297.9847176957858</v>
@@ -6704,31 +6704,31 @@
         <v>754.9096440049536</v>
       </c>
       <c r="L32" t="n">
-        <v>1310.70914800495</v>
+        <v>1374.042046699514</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.219785518169</v>
+        <v>1933.839764763246</v>
       </c>
       <c r="N32" t="n">
-        <v>2285.540870021337</v>
+        <v>2636.134304434278</v>
       </c>
       <c r="O32" t="n">
-        <v>2903.510051273523</v>
+        <v>2877.111306236346</v>
       </c>
       <c r="P32" t="n">
-        <v>3393.258067342423</v>
+        <v>3366.859322305247</v>
       </c>
       <c r="Q32" t="n">
-        <v>3683.81667159148</v>
+        <v>3657.417926554304</v>
       </c>
       <c r="R32" t="n">
-        <v>3683.81667159148</v>
+        <v>3683.816671591481</v>
       </c>
       <c r="S32" t="n">
-        <v>3617.01098945311</v>
+        <v>3617.010989453111</v>
       </c>
       <c r="T32" t="n">
-        <v>3483.726527573719</v>
+        <v>3483.72652757372</v>
       </c>
       <c r="U32" t="n">
         <v>3309.707515110801</v>
@@ -6774,28 +6774,28 @@
         <v>111.6822695035227</v>
       </c>
       <c r="I33" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J33" t="n">
-        <v>213.5794907501698</v>
+        <v>213.5794907501699</v>
       </c>
       <c r="K33" t="n">
-        <v>579.3171131690665</v>
+        <v>317.4965285266138</v>
       </c>
       <c r="L33" t="n">
-        <v>1132.500877624053</v>
+        <v>780.9486511981085</v>
       </c>
       <c r="M33" t="n">
-        <v>1429.761528752947</v>
+        <v>1478.467233964858</v>
       </c>
       <c r="N33" t="n">
-        <v>1686.899415661552</v>
+        <v>2210.154071473581</v>
       </c>
       <c r="O33" t="n">
-        <v>1899.910551020391</v>
+        <v>2423.16520683242</v>
       </c>
       <c r="P33" t="n">
-        <v>2366.815841249539</v>
+        <v>2574.79235610803</v>
       </c>
       <c r="Q33" t="n">
         <v>2626.231893500986</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>569.7500878529247</v>
+        <v>569.7500878529243</v>
       </c>
       <c r="C34" t="n">
-        <v>480.4522928141265</v>
+        <v>480.4522928141261</v>
       </c>
       <c r="D34" t="n">
-        <v>409.9740412908995</v>
+        <v>409.9740412908991</v>
       </c>
       <c r="E34" t="n">
-        <v>341.6993355976152</v>
+        <v>341.6993355976147</v>
       </c>
       <c r="F34" t="n">
-        <v>274.4477759888136</v>
+        <v>274.447775988813</v>
       </c>
       <c r="G34" t="n">
-        <v>185.6716576393848</v>
+        <v>185.6716576393842</v>
       </c>
       <c r="H34" t="n">
-        <v>112.7654689121254</v>
+        <v>112.7654689121255</v>
       </c>
       <c r="I34" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J34" t="n">
-        <v>147.5387775206248</v>
+        <v>147.5387775206253</v>
       </c>
       <c r="K34" t="n">
-        <v>348.541867912022</v>
+        <v>348.5418679120224</v>
       </c>
       <c r="L34" t="n">
-        <v>639.4549246708306</v>
+        <v>639.4549246708309</v>
       </c>
       <c r="M34" t="n">
-        <v>952.3281006907835</v>
+        <v>952.3281006907837</v>
       </c>
       <c r="N34" t="n">
         <v>1265.052408081239</v>
@@ -6886,22 +6886,22 @@
         <v>1700.762696556902</v>
       </c>
       <c r="T34" t="n">
-        <v>1555.593698849804</v>
+        <v>1555.593698849805</v>
       </c>
       <c r="U34" t="n">
-        <v>1346.090401522016</v>
+        <v>1346.090401522015</v>
       </c>
       <c r="V34" t="n">
         <v>1171.044301205237</v>
       </c>
       <c r="W34" t="n">
-        <v>961.2655190573855</v>
+        <v>961.2655190573853</v>
       </c>
       <c r="X34" t="n">
-        <v>812.914356048477</v>
+        <v>812.9143560484766</v>
       </c>
       <c r="Y34" t="n">
-        <v>671.7601647940556</v>
+        <v>671.7601647940553</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1207.23373496295</v>
+        <v>1207.233734962952</v>
       </c>
       <c r="C35" t="n">
-        <v>1020.260867907513</v>
+        <v>1020.260867907515</v>
       </c>
       <c r="D35" t="n">
-        <v>843.9848191857383</v>
+        <v>843.98481918574</v>
       </c>
       <c r="E35" t="n">
-        <v>640.1862164724694</v>
+        <v>640.1862164724708</v>
       </c>
       <c r="F35" t="n">
-        <v>411.1899615678371</v>
+        <v>411.1899615678384</v>
       </c>
       <c r="G35" t="n">
-        <v>176.5206159745145</v>
+        <v>176.5206159745147</v>
       </c>
       <c r="H35" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I35" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J35" t="n">
-        <v>268.9868424400232</v>
+        <v>101.5811934196702</v>
       </c>
       <c r="K35" t="n">
-        <v>405.0078103037379</v>
+        <v>237.602161283385</v>
       </c>
       <c r="L35" t="n">
-        <v>610.6556105933521</v>
+        <v>443.2499615729991</v>
       </c>
       <c r="M35" t="n">
-        <v>871.1478499486664</v>
+        <v>703.7422009283134</v>
       </c>
       <c r="N35" t="n">
-        <v>1140.468934451834</v>
+        <v>973.0632854314813</v>
       </c>
       <c r="O35" t="n">
-        <v>1663.808129238696</v>
+        <v>1453.616288485393</v>
       </c>
       <c r="P35" t="n">
-        <v>2153.556145307596</v>
+        <v>1943.364304554294</v>
       </c>
       <c r="Q35" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R35" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="S35" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="T35" t="n">
-        <v>2202.989708919823</v>
+        <v>2202.989708919827</v>
       </c>
       <c r="U35" t="n">
-        <v>2131.321958452771</v>
+        <v>2131.321958452775</v>
       </c>
       <c r="V35" t="n">
-        <v>1982.248720994176</v>
+        <v>1982.248720994179</v>
       </c>
       <c r="W35" t="n">
-        <v>1811.469715609037</v>
+        <v>1811.46971560904</v>
       </c>
       <c r="X35" t="n">
-        <v>1619.993607232933</v>
+        <v>1619.993607232935</v>
       </c>
       <c r="Y35" t="n">
-        <v>1411.843925142096</v>
+        <v>1411.843925142099</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>711.8438461687088</v>
+        <v>584.4449685439167</v>
       </c>
       <c r="C36" t="n">
-        <v>537.3908168875818</v>
+        <v>409.9919392627897</v>
       </c>
       <c r="D36" t="n">
-        <v>388.4564072263305</v>
+        <v>261.0575296015385</v>
       </c>
       <c r="E36" t="n">
-        <v>229.218952220875</v>
+        <v>143.3787132407586</v>
       </c>
       <c r="F36" t="n">
-        <v>82.68439424776</v>
+        <v>143.3787132407586</v>
       </c>
       <c r="G36" t="n">
-        <v>82.68439424776</v>
+        <v>143.3787132407586</v>
       </c>
       <c r="H36" t="n">
-        <v>82.68439424776</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I36" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J36" t="n">
-        <v>184.5816154944072</v>
+        <v>161.4110112158698</v>
       </c>
       <c r="K36" t="n">
-        <v>550.3192379133039</v>
+        <v>527.1486336347665</v>
       </c>
       <c r="L36" t="n">
-        <v>776.375330784608</v>
+        <v>713.2004562393288</v>
       </c>
       <c r="M36" t="n">
-        <v>1012.845900438858</v>
+        <v>949.6710258935786</v>
       </c>
       <c r="N36" t="n">
-        <v>1269.983787347462</v>
+        <v>1502.566945822408</v>
       </c>
       <c r="O36" t="n">
-        <v>1822.879707276291</v>
+        <v>1715.578081181247</v>
       </c>
       <c r="P36" t="n">
-        <v>1974.506856551901</v>
+        <v>2182.483371410395</v>
       </c>
       <c r="Q36" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R36" t="n">
-        <v>2227.05522892505</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="S36" t="n">
-        <v>2209.248709791128</v>
+        <v>2081.849832166336</v>
       </c>
       <c r="T36" t="n">
-        <v>2013.184141128543</v>
+        <v>1885.785263503751</v>
       </c>
       <c r="U36" t="n">
-        <v>1785.060447119208</v>
+        <v>1657.661569494416</v>
       </c>
       <c r="V36" t="n">
-        <v>1549.908338887465</v>
+        <v>1422.509461262673</v>
       </c>
       <c r="W36" t="n">
-        <v>1295.670982159264</v>
+        <v>1168.272104534472</v>
       </c>
       <c r="X36" t="n">
-        <v>1087.819481953731</v>
+        <v>960.4206043289387</v>
       </c>
       <c r="Y36" t="n">
-        <v>880.0591831887768</v>
+        <v>752.6603055639848</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>359.9829119125149</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="C37" t="n">
-        <v>359.9829119125149</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="D37" t="n">
-        <v>359.9829119125149</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="E37" t="n">
-        <v>359.9829119125149</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="F37" t="n">
-        <v>213.0929644146045</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="G37" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="H37" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I37" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J37" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="K37" t="n">
-        <v>167.6279645973487</v>
+        <v>167.6279645973488</v>
       </c>
       <c r="L37" t="n">
-        <v>380.4874373860417</v>
+        <v>380.4874373860418</v>
       </c>
       <c r="M37" t="n">
-        <v>615.3070294358791</v>
+        <v>615.3070294358793</v>
       </c>
       <c r="N37" t="n">
-        <v>849.9777528562195</v>
+        <v>849.9777528562196</v>
       </c>
       <c r="O37" t="n">
         <v>1050.717852977647</v>
@@ -7117,28 +7117,28 @@
         <v>1218.168569202413</v>
       </c>
       <c r="R37" t="n">
-        <v>1218.168569202413</v>
+        <v>1096.338858258426</v>
       </c>
       <c r="S37" t="n">
-        <v>1014.080224587305</v>
+        <v>892.2505136433189</v>
       </c>
       <c r="T37" t="n">
-        <v>789.2728389910992</v>
+        <v>849.4327779320877</v>
       </c>
       <c r="U37" t="n">
-        <v>624.9081006570086</v>
+        <v>560.29109271519</v>
       </c>
       <c r="V37" t="n">
-        <v>552.213262336097</v>
+        <v>487.5962543942782</v>
       </c>
       <c r="W37" t="n">
-        <v>444.7857421841117</v>
+        <v>198.1790843573175</v>
       </c>
       <c r="X37" t="n">
-        <v>398.7858411710696</v>
+        <v>152.1791833442753</v>
       </c>
       <c r="Y37" t="n">
-        <v>359.9829119125149</v>
+        <v>113.3762540857203</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1207.23373496295</v>
+        <v>1207.233734962952</v>
       </c>
       <c r="C38" t="n">
-        <v>1020.260867907513</v>
+        <v>1020.260867907516</v>
       </c>
       <c r="D38" t="n">
-        <v>843.9848191857383</v>
+        <v>843.9848191857404</v>
       </c>
       <c r="E38" t="n">
-        <v>640.1862164724694</v>
+        <v>640.1862164724712</v>
       </c>
       <c r="F38" t="n">
-        <v>411.1899615678371</v>
+        <v>411.1899615678387</v>
       </c>
       <c r="G38" t="n">
-        <v>176.5206159745145</v>
+        <v>176.5206159745148</v>
       </c>
       <c r="H38" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I38" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J38" t="n">
-        <v>268.9868424400232</v>
+        <v>101.5811934196702</v>
       </c>
       <c r="K38" t="n">
-        <v>477.1781625352254</v>
+        <v>237.602161283385</v>
       </c>
       <c r="L38" t="n">
-        <v>682.8259628248395</v>
+        <v>790.4980812122144</v>
       </c>
       <c r="M38" t="n">
-        <v>943.3182021801538</v>
+        <v>1343.394001141044</v>
       </c>
       <c r="N38" t="n">
-        <v>1212.639286683322</v>
+        <v>1612.715085644212</v>
       </c>
       <c r="O38" t="n">
-        <v>1453.61628848539</v>
+        <v>1853.69208744628</v>
       </c>
       <c r="P38" t="n">
-        <v>1943.36430455429</v>
+        <v>2024.859382425413</v>
       </c>
       <c r="Q38" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R38" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="S38" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="T38" t="n">
-        <v>2202.989708919823</v>
+        <v>2202.989708919827</v>
       </c>
       <c r="U38" t="n">
-        <v>2131.321958452771</v>
+        <v>2131.321958452775</v>
       </c>
       <c r="V38" t="n">
-        <v>1982.248720994176</v>
+        <v>1982.24872099418</v>
       </c>
       <c r="W38" t="n">
-        <v>1811.469715609037</v>
+        <v>1811.469715609041</v>
       </c>
       <c r="X38" t="n">
-        <v>1619.993607232933</v>
+        <v>1619.993607232936</v>
       </c>
       <c r="Y38" t="n">
-        <v>1411.843925142096</v>
+        <v>1411.843925142099</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>711.8438461687088</v>
+        <v>584.4449685439167</v>
       </c>
       <c r="C39" t="n">
-        <v>537.3908168875818</v>
+        <v>409.9919392627897</v>
       </c>
       <c r="D39" t="n">
-        <v>388.4564072263305</v>
+        <v>350.4504711546376</v>
       </c>
       <c r="E39" t="n">
-        <v>229.218952220875</v>
+        <v>191.2130161491821</v>
       </c>
       <c r="F39" t="n">
-        <v>82.68439424776</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="G39" t="n">
-        <v>82.68439424776</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="H39" t="n">
-        <v>82.68439424776</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I39" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J39" t="n">
-        <v>184.5816154944072</v>
+        <v>59.75149050740251</v>
       </c>
       <c r="K39" t="n">
-        <v>550.3192379133039</v>
+        <v>163.6685282838464</v>
       </c>
       <c r="L39" t="n">
-        <v>736.3710605178662</v>
+        <v>349.7203508884087</v>
       </c>
       <c r="M39" t="n">
-        <v>972.8416301721161</v>
+        <v>717.0878674186356</v>
       </c>
       <c r="N39" t="n">
-        <v>1229.979517080721</v>
+        <v>1269.983787347465</v>
       </c>
       <c r="O39" t="n">
-        <v>1507.601566322753</v>
+        <v>1822.879707276295</v>
       </c>
       <c r="P39" t="n">
-        <v>1974.506856551901</v>
+        <v>1974.506856551905</v>
       </c>
       <c r="Q39" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R39" t="n">
-        <v>2233.922908803348</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="S39" t="n">
-        <v>2209.248709791128</v>
+        <v>2081.849832166336</v>
       </c>
       <c r="T39" t="n">
-        <v>2013.184141128543</v>
+        <v>1885.785263503751</v>
       </c>
       <c r="U39" t="n">
-        <v>1785.060447119208</v>
+        <v>1657.661569494416</v>
       </c>
       <c r="V39" t="n">
-        <v>1549.908338887465</v>
+        <v>1422.509461262673</v>
       </c>
       <c r="W39" t="n">
-        <v>1295.670982159264</v>
+        <v>1168.272104534472</v>
       </c>
       <c r="X39" t="n">
-        <v>1087.819481953731</v>
+        <v>960.4206043289387</v>
       </c>
       <c r="Y39" t="n">
-        <v>880.0591831887768</v>
+        <v>752.6603055639848</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.67845817606695</v>
+        <v>194.7950975884028</v>
       </c>
       <c r="C40" t="n">
-        <v>44.67845817606695</v>
+        <v>194.7950975884028</v>
       </c>
       <c r="D40" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="E40" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="F40" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="G40" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="H40" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I40" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J40" t="n">
-        <v>44.67845817606695</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="K40" t="n">
-        <v>167.6279645973487</v>
+        <v>167.6279645973488</v>
       </c>
       <c r="L40" t="n">
-        <v>380.4874373860417</v>
+        <v>380.4874373860418</v>
       </c>
       <c r="M40" t="n">
-        <v>615.3070294358791</v>
+        <v>615.3070294358793</v>
       </c>
       <c r="N40" t="n">
-        <v>849.9777528562195</v>
+        <v>849.9777528562196</v>
       </c>
       <c r="O40" t="n">
         <v>1050.717852977647</v>
@@ -7354,28 +7354,28 @@
         <v>1218.168569202413</v>
       </c>
       <c r="R40" t="n">
-        <v>1096.338858258426</v>
+        <v>1218.168569202413</v>
       </c>
       <c r="S40" t="n">
-        <v>892.2505136433186</v>
+        <v>1014.080224587306</v>
       </c>
       <c r="T40" t="n">
-        <v>780.3937969676981</v>
+        <v>789.2728389910994</v>
       </c>
       <c r="U40" t="n">
-        <v>673.2417616357757</v>
+        <v>500.1311537742017</v>
       </c>
       <c r="V40" t="n">
-        <v>600.5469233148641</v>
+        <v>427.4363154532899</v>
       </c>
       <c r="W40" t="n">
-        <v>493.1194031628788</v>
+        <v>320.0087953013043</v>
       </c>
       <c r="X40" t="n">
-        <v>447.1195021498368</v>
+        <v>274.008894288262</v>
       </c>
       <c r="Y40" t="n">
-        <v>226.3269230063067</v>
+        <v>194.7950975884028</v>
       </c>
     </row>
     <row r="41">
@@ -7391,70 +7391,70 @@
         <v>1020.260867907514</v>
       </c>
       <c r="D41" t="n">
-        <v>843.9848191857393</v>
+        <v>843.9848191857388</v>
       </c>
       <c r="E41" t="n">
-        <v>640.1862164724704</v>
+        <v>640.1862164724698</v>
       </c>
       <c r="F41" t="n">
-        <v>411.1899615678381</v>
+        <v>411.1899615678373</v>
       </c>
       <c r="G41" t="n">
-        <v>176.5206159745145</v>
+        <v>176.5206159745148</v>
       </c>
       <c r="H41" t="n">
-        <v>44.67845817606697</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I41" t="n">
-        <v>44.67845817606697</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J41" t="n">
         <v>268.9868424400232</v>
       </c>
       <c r="K41" t="n">
-        <v>725.911768749191</v>
+        <v>687.3700032885343</v>
       </c>
       <c r="L41" t="n">
-        <v>931.5595690388051</v>
+        <v>893.0178035781485</v>
       </c>
       <c r="M41" t="n">
-        <v>1192.051808394119</v>
+        <v>1153.510042933463</v>
       </c>
       <c r="N41" t="n">
-        <v>1461.372892897287</v>
+        <v>1422.831127436631</v>
       </c>
       <c r="O41" t="n">
-        <v>1702.349894699355</v>
+        <v>1663.808129238699</v>
       </c>
       <c r="P41" t="n">
-        <v>1943.364304554291</v>
+        <v>2153.556145307599</v>
       </c>
       <c r="Q41" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R41" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="S41" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="T41" t="n">
-        <v>2202.989708919824</v>
+        <v>2202.989708919826</v>
       </c>
       <c r="U41" t="n">
-        <v>2131.321958452772</v>
+        <v>2131.321958452774</v>
       </c>
       <c r="V41" t="n">
-        <v>1982.248720994177</v>
+        <v>1982.248720994178</v>
       </c>
       <c r="W41" t="n">
-        <v>1811.469715609038</v>
+        <v>1811.469715609039</v>
       </c>
       <c r="X41" t="n">
         <v>1619.993607232934</v>
       </c>
       <c r="Y41" t="n">
-        <v>1411.843925142097</v>
+        <v>1411.843925142098</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>729.6503653026307</v>
+        <v>584.4449685439163</v>
       </c>
       <c r="C42" t="n">
-        <v>555.1973360215037</v>
+        <v>409.9919392627893</v>
       </c>
       <c r="D42" t="n">
-        <v>406.2629263602524</v>
+        <v>409.9919392627893</v>
       </c>
       <c r="E42" t="n">
-        <v>247.0254713547969</v>
+        <v>328.42499290157</v>
       </c>
       <c r="F42" t="n">
-        <v>100.4909133816819</v>
+        <v>181.890434928455</v>
       </c>
       <c r="G42" t="n">
-        <v>44.67845817606697</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="H42" t="n">
-        <v>44.67845817606697</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I42" t="n">
-        <v>44.67845817606697</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J42" t="n">
-        <v>184.5816154944072</v>
+        <v>59.75149050740251</v>
       </c>
       <c r="K42" t="n">
-        <v>550.3192379133039</v>
+        <v>163.6685282838464</v>
       </c>
       <c r="L42" t="n">
-        <v>800.9819744010604</v>
+        <v>716.5644482126758</v>
       </c>
       <c r="M42" t="n">
-        <v>1037.45254405531</v>
+        <v>1269.460368141505</v>
       </c>
       <c r="N42" t="n">
-        <v>1294.590430963915</v>
+        <v>1526.59825505011</v>
       </c>
       <c r="O42" t="n">
-        <v>1507.601566322754</v>
+        <v>1739.609390408949</v>
       </c>
       <c r="P42" t="n">
-        <v>1974.506856551902</v>
+        <v>1974.506856551904</v>
       </c>
       <c r="Q42" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R42" t="n">
-        <v>2227.05522892505</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="S42" t="n">
-        <v>2227.05522892505</v>
+        <v>2081.849832166336</v>
       </c>
       <c r="T42" t="n">
-        <v>2030.990660262465</v>
+        <v>1885.78526350375</v>
       </c>
       <c r="U42" t="n">
-        <v>1802.86696625313</v>
+        <v>1657.661569494415</v>
       </c>
       <c r="V42" t="n">
-        <v>1567.714858021387</v>
+        <v>1422.509461262673</v>
       </c>
       <c r="W42" t="n">
-        <v>1313.477501293185</v>
+        <v>1168.272104534471</v>
       </c>
       <c r="X42" t="n">
-        <v>1105.626001087653</v>
+        <v>960.4206043289382</v>
       </c>
       <c r="Y42" t="n">
-        <v>897.8657023226988</v>
+        <v>752.6603055639844</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.95469517363843</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="C43" t="n">
-        <v>48.95469517363843</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="D43" t="n">
-        <v>48.95469517363843</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="E43" t="n">
-        <v>48.95469517363843</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="F43" t="n">
-        <v>48.95469517363843</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="G43" t="n">
-        <v>48.95469517363843</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="H43" t="n">
-        <v>48.95469517363843</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="I43" t="n">
-        <v>48.95469517363843</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J43" t="n">
-        <v>44.67845817606697</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="K43" t="n">
-        <v>167.6279645973487</v>
+        <v>167.6279645973488</v>
       </c>
       <c r="L43" t="n">
-        <v>380.4874373860417</v>
+        <v>380.4874373860418</v>
       </c>
       <c r="M43" t="n">
-        <v>615.3070294358791</v>
+        <v>615.3070294358793</v>
       </c>
       <c r="N43" t="n">
-        <v>849.9777528562195</v>
+        <v>849.9777528562196</v>
       </c>
       <c r="O43" t="n">
         <v>1050.717852977647</v>
@@ -7591,28 +7591,28 @@
         <v>1218.168569202413</v>
       </c>
       <c r="R43" t="n">
-        <v>1218.168569202413</v>
+        <v>1146.368585718178</v>
       </c>
       <c r="S43" t="n">
-        <v>1191.808254501187</v>
+        <v>1124.269890988046</v>
       </c>
       <c r="T43" t="n">
-        <v>1148.990518789956</v>
+        <v>1081.452155276814</v>
       </c>
       <c r="U43" t="n">
-        <v>859.8488335730581</v>
+        <v>974.3001199448914</v>
       </c>
       <c r="V43" t="n">
-        <v>787.1539952521465</v>
+        <v>719.6156317390046</v>
       </c>
       <c r="W43" t="n">
-        <v>497.7368252151859</v>
+        <v>430.198461702044</v>
       </c>
       <c r="X43" t="n">
-        <v>269.7472743171685</v>
+        <v>384.1985606890017</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.95469517363843</v>
+        <v>163.4059815454716</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1207.23373496295</v>
+        <v>1207.233734962951</v>
       </c>
       <c r="C44" t="n">
-        <v>1020.260867907513</v>
+        <v>1020.260867907514</v>
       </c>
       <c r="D44" t="n">
-        <v>843.9848191857383</v>
+        <v>843.9848191857388</v>
       </c>
       <c r="E44" t="n">
-        <v>640.1862164724694</v>
+        <v>640.1862164724698</v>
       </c>
       <c r="F44" t="n">
-        <v>411.1899615678371</v>
+        <v>411.1899615678374</v>
       </c>
       <c r="G44" t="n">
-        <v>176.5206159745145</v>
+        <v>176.5206159745148</v>
       </c>
       <c r="H44" t="n">
-        <v>44.67845817606697</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I44" t="n">
-        <v>44.67845817606697</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J44" t="n">
-        <v>268.9868424400232</v>
+        <v>101.5811934196702</v>
       </c>
       <c r="K44" t="n">
-        <v>725.911768749191</v>
+        <v>237.602161283385</v>
       </c>
       <c r="L44" t="n">
-        <v>931.5595690388051</v>
+        <v>790.4980812122143</v>
       </c>
       <c r="M44" t="n">
-        <v>1192.051808394119</v>
+        <v>1050.990320567529</v>
       </c>
       <c r="N44" t="n">
-        <v>1461.372892897287</v>
+        <v>1603.886240496358</v>
       </c>
       <c r="O44" t="n">
-        <v>1702.349894699355</v>
+        <v>1844.863242298426</v>
       </c>
       <c r="P44" t="n">
-        <v>1943.364304554291</v>
+        <v>2127.157400270422</v>
       </c>
       <c r="Q44" t="n">
-        <v>2233.922908803348</v>
+        <v>2207.524163766173</v>
       </c>
       <c r="R44" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="S44" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="T44" t="n">
-        <v>2202.989708919824</v>
+        <v>2202.989708919826</v>
       </c>
       <c r="U44" t="n">
-        <v>2131.321958452772</v>
+        <v>2131.321958452774</v>
       </c>
       <c r="V44" t="n">
-        <v>1982.248720994176</v>
+        <v>1982.248720994178</v>
       </c>
       <c r="W44" t="n">
-        <v>1811.469715609037</v>
+        <v>1811.469715609039</v>
       </c>
       <c r="X44" t="n">
-        <v>1619.993607232933</v>
+        <v>1619.993607232934</v>
       </c>
       <c r="Y44" t="n">
-        <v>1411.843925142096</v>
+        <v>1411.843925142097</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>711.8438461687089</v>
+        <v>673.8379100970158</v>
       </c>
       <c r="C45" t="n">
-        <v>537.3908168875819</v>
+        <v>499.3848808158888</v>
       </c>
       <c r="D45" t="n">
-        <v>388.4564072263306</v>
+        <v>350.4504711546375</v>
       </c>
       <c r="E45" t="n">
-        <v>229.2189522208751</v>
+        <v>191.213016149182</v>
       </c>
       <c r="F45" t="n">
-        <v>82.68439424776003</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="G45" t="n">
-        <v>82.68439424776003</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="H45" t="n">
-        <v>82.68439424776003</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I45" t="n">
-        <v>44.67845817606697</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J45" t="n">
-        <v>184.5816154944072</v>
+        <v>59.75149050740251</v>
       </c>
       <c r="K45" t="n">
-        <v>550.3192379133039</v>
+        <v>267.6061624055461</v>
       </c>
       <c r="L45" t="n">
-        <v>800.9819744010604</v>
+        <v>820.5020823343755</v>
       </c>
       <c r="M45" t="n">
-        <v>1037.45254405531</v>
+        <v>1056.972651988625</v>
       </c>
       <c r="N45" t="n">
-        <v>1294.590430963915</v>
+        <v>1609.868571917455</v>
       </c>
       <c r="O45" t="n">
-        <v>1507.601566322754</v>
+        <v>1822.879707276294</v>
       </c>
       <c r="P45" t="n">
-        <v>1974.506856551902</v>
+        <v>1974.506856551904</v>
       </c>
       <c r="Q45" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R45" t="n">
-        <v>2233.922908803348</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="S45" t="n">
-        <v>2088.717512044632</v>
+        <v>2081.849832166336</v>
       </c>
       <c r="T45" t="n">
-        <v>2013.184141128543</v>
+        <v>1885.78526350375</v>
       </c>
       <c r="U45" t="n">
-        <v>1785.060447119208</v>
+        <v>1657.661569494415</v>
       </c>
       <c r="V45" t="n">
-        <v>1549.908338887465</v>
+        <v>1511.902402815772</v>
       </c>
       <c r="W45" t="n">
-        <v>1295.670982159264</v>
+        <v>1257.665046087571</v>
       </c>
       <c r="X45" t="n">
-        <v>1087.819481953731</v>
+        <v>1049.813545882038</v>
       </c>
       <c r="Y45" t="n">
-        <v>880.0591831887768</v>
+        <v>842.0532471170839</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>368.0075175138811</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="C46" t="n">
-        <v>199.0713345859742</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="D46" t="n">
-        <v>48.95469517363843</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="E46" t="n">
-        <v>48.95469517363843</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="F46" t="n">
-        <v>48.95469517363843</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="G46" t="n">
-        <v>48.95469517363843</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="H46" t="n">
-        <v>48.95469517363843</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I46" t="n">
-        <v>48.95469517363843</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J46" t="n">
-        <v>44.67845817606697</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="K46" t="n">
-        <v>167.6279645973487</v>
+        <v>167.6279645973488</v>
       </c>
       <c r="L46" t="n">
-        <v>380.4874373860417</v>
+        <v>380.4874373860418</v>
       </c>
       <c r="M46" t="n">
-        <v>615.3070294358791</v>
+        <v>615.3070294358793</v>
       </c>
       <c r="N46" t="n">
-        <v>849.9777528562195</v>
+        <v>849.9777528562196</v>
       </c>
       <c r="O46" t="n">
         <v>1050.717852977647</v>
@@ -7828,28 +7828,28 @@
         <v>1218.168569202413</v>
       </c>
       <c r="R46" t="n">
-        <v>1218.168569202413</v>
+        <v>1096.338858258426</v>
       </c>
       <c r="S46" t="n">
-        <v>1196.069874472281</v>
+        <v>1074.240163528294</v>
       </c>
       <c r="T46" t="n">
-        <v>1153.25213876105</v>
+        <v>849.4327779320876</v>
       </c>
       <c r="U46" t="n">
-        <v>1046.100103429128</v>
+        <v>560.2910927151898</v>
       </c>
       <c r="V46" t="n">
-        <v>973.405265108216</v>
+        <v>487.596254394278</v>
       </c>
       <c r="W46" t="n">
-        <v>816.448462500693</v>
+        <v>198.1790843573174</v>
       </c>
       <c r="X46" t="n">
-        <v>770.448561487651</v>
+        <v>83.48138743462208</v>
       </c>
       <c r="Y46" t="n">
-        <v>549.6559823441208</v>
+        <v>44.67845817606702</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.05102084553042</v>
+        <v>39.05102084553067</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>60.9395407055984</v>
       </c>
       <c r="M12" t="n">
-        <v>123.6142794301138</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>84.63593898379116</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>147.3106777083058</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>174.5423067530299</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>33.70791166087378</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.15918307349577</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.93954070559761</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2502184139042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>147.3106777083057</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>84.63593898379072</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>123.6142794301134</v>
+        <v>82.15918307349438</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>25.43937969142755</v>
+        <v>237.7543703513342</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>39.05102084553067</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>13.86146563736521</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>162.7833102341414</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>109.8362656889784</v>
+        <v>269.3598128937317</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>272.3393967080096</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>90.62520028146673</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>39.05102084553067</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,22 +9957,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>12.4310393636103</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>120.9330684037044</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10121,19 +10121,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>176.960645450471</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>148.3423657159018</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>39.0510208455307</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>61.40412270166098</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>374.5504718046483</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,16 +10352,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>353.688589606447</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>302.3287663721393</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>39.05102084553067</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>280.2023232999317</v>
       </c>
       <c r="M33" t="n">
-        <v>61.40412270166092</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>285.214336348276</v>
+        <v>241.9959608604485</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>39.05102084553067</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>102.6863845540073</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>40.40835380478961</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>298.745487899217</v>
       </c>
       <c r="O36" t="n">
-        <v>343.3179642121104</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>72.8993456883712</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>350.7556764032478</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>295.3572531045608</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>129.9967301840274</v>
       </c>
       <c r="R38" t="n">
         <v>39.05102084553067</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>132.2191382585627</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>298.745487899217</v>
       </c>
       <c r="O39" t="n">
-        <v>65.26354937696289</v>
+        <v>343.3179642121113</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>285.2143363482792</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>70.5526412886901</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>39.05102084553067</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>65.26354937696377</v>
+        <v>370.5495932568354</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>319.6215659339187</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>84.11143117913619</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>350.7556764032477</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>286.4392277026884</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>70.5526412886901</v>
+        <v>112.2493565584475</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>39.05102084553067</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>104.9875092138381</v>
       </c>
       <c r="L45" t="n">
-        <v>65.26354937696377</v>
+        <v>370.5495932568353</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>298.7454878992169</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.9879130210781</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>222.5269631286051</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>239.1844414298593</v>
+        <v>239.1844414298595</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>160.5385186782106</v>
       </c>
       <c r="G11" t="n">
-        <v>269.7464768811126</v>
+        <v>269.7464768811127</v>
       </c>
       <c r="H11" t="n">
-        <v>90.72267484397355</v>
+        <v>167.9475609641863</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.233700684801462</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>185.0063298277325</v>
+        <v>185.0063298277326</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.9851720360667</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.9879130210781</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>211.9371129782805</v>
+        <v>211.9371129782807</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>269.7464768811127</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>167.9475609641863</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>54.11519619530895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>108.3748977061044</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>185.0063298277325</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>206.4950400750106</v>
+        <v>206.4950400750107</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>226.9851720360667</v>
       </c>
       <c r="Y14" t="n">
-        <v>243.4920100136511</v>
+        <v>166.2971368825115</v>
       </c>
     </row>
     <row r="15">
@@ -23732,16 +23732,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>99.92794941327774</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>133.0951089680628</v>
+        <v>133.095108968063</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>99.92794941328063</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23975,13 +23975,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>160.3424374196417</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>42.11858551044816</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>190.904472870895</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>72.68062096169893</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>7.616129948928574e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>705824.5374047098</v>
+        <v>705824.5374047094</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>705824.5374047097</v>
+        <v>705824.5374047094</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782683.6044860868</v>
+        <v>782683.6044860866</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782683.6044860868</v>
+        <v>782683.6044860866</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815532.9755818865</v>
+        <v>815532.9755818867</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918162.6565471294</v>
+        <v>918162.6565471293</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>850014.6318641456</v>
+        <v>850014.6318641459</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>850014.6318641456</v>
+        <v>850014.6318641459</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>850014.6318641456</v>
+        <v>850014.6318641457</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>850014.6318641456</v>
+        <v>850014.6318641457</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>655421.0709736308</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="D2" t="n">
         <v>655421.0709736305</v>
       </c>
       <c r="E2" t="n">
-        <v>577271.0826230695</v>
+        <v>577271.0826230686</v>
       </c>
       <c r="F2" t="n">
-        <v>577271.0826230689</v>
+        <v>577271.0826230685</v>
       </c>
       <c r="G2" t="n">
-        <v>641994.507533703</v>
+        <v>641994.5075337029</v>
       </c>
       <c r="H2" t="n">
-        <v>641994.5075337029</v>
+        <v>641994.5075337027</v>
       </c>
       <c r="I2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="J2" t="n">
+        <v>656833.415891425</v>
+      </c>
+      <c r="K2" t="n">
+        <v>656833.4158914252</v>
+      </c>
+      <c r="L2" t="n">
+        <v>656833.4158914259</v>
+      </c>
+      <c r="M2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="N2" t="n">
+        <v>656833.4158914261</v>
+      </c>
+      <c r="O2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="J2" t="n">
-        <v>656833.4158914252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>656833.415891426</v>
-      </c>
-      <c r="L2" t="n">
-        <v>656833.4158914255</v>
-      </c>
-      <c r="M2" t="n">
-        <v>656833.4158914265</v>
-      </c>
-      <c r="N2" t="n">
-        <v>656833.4158914266</v>
-      </c>
-      <c r="O2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="P2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914263</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>784058.339714908</v>
+        <v>784058.3397149069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15967.25538750371</v>
+        <v>15967.25538750391</v>
       </c>
       <c r="J3" t="n">
-        <v>130412.6889307355</v>
+        <v>130412.6889307354</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63073.60320817413</v>
+        <v>63073.60320817409</v>
       </c>
       <c r="M3" t="n">
-        <v>81062.1995007263</v>
+        <v>81062.19950072617</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>457775.3608255375</v>
       </c>
       <c r="E4" t="n">
-        <v>168918.2807275038</v>
+        <v>168918.2807275039</v>
       </c>
       <c r="F4" t="n">
         <v>168918.2807275039</v>
       </c>
       <c r="G4" t="n">
+        <v>215095.7806737526</v>
+      </c>
+      <c r="H4" t="n">
         <v>215095.7806737527</v>
-      </c>
-      <c r="H4" t="n">
-        <v>215095.7806737528</v>
       </c>
       <c r="I4" t="n">
         <v>224728.1770266656</v>
@@ -26445,7 +26445,7 @@
         <v>218488.3323051135</v>
       </c>
       <c r="L4" t="n">
-        <v>218488.3323051134</v>
+        <v>218488.3323051135</v>
       </c>
       <c r="M4" t="n">
         <v>222566.7478810749</v>
@@ -26454,10 +26454,10 @@
         <v>222566.7478810749</v>
       </c>
       <c r="O4" t="n">
-        <v>222566.7478810749</v>
+        <v>222566.7478810748</v>
       </c>
       <c r="P4" t="n">
-        <v>222566.747881075</v>
+        <v>222566.7478810748</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>49278.62047697527</v>
+        <v>49278.62047697518</v>
       </c>
       <c r="F5" t="n">
-        <v>49278.62047697519</v>
+        <v>49278.62047697518</v>
       </c>
       <c r="G5" t="n">
-        <v>55906.78891211019</v>
+        <v>55906.78891211016</v>
       </c>
       <c r="H5" t="n">
-        <v>55906.78891211019</v>
+        <v>55906.78891211016</v>
       </c>
       <c r="I5" t="n">
-        <v>59557.53152950492</v>
+        <v>59557.53152950494</v>
       </c>
       <c r="J5" t="n">
         <v>77861.90965088298</v>
       </c>
       <c r="K5" t="n">
-        <v>77861.90965088298</v>
+        <v>77861.909650883</v>
       </c>
       <c r="L5" t="n">
-        <v>77861.90965088298</v>
+        <v>77861.909650883</v>
       </c>
       <c r="M5" t="n">
-        <v>64342.04701878656</v>
+        <v>64342.0470187866</v>
       </c>
       <c r="N5" t="n">
-        <v>64342.04701878656</v>
+        <v>64342.0470187866</v>
       </c>
       <c r="O5" t="n">
-        <v>64342.04701878658</v>
+        <v>64342.04701878659</v>
       </c>
       <c r="P5" t="n">
-        <v>64342.04701878658</v>
+        <v>64342.04701878659</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164018.1101480933</v>
+        <v>164013.6965702252</v>
       </c>
       <c r="C6" t="n">
-        <v>164018.1101480932</v>
+        <v>164013.6965702252</v>
       </c>
       <c r="D6" t="n">
-        <v>164018.1101480931</v>
+        <v>164013.6965702249</v>
       </c>
       <c r="E6" t="n">
-        <v>-424984.1582963176</v>
+        <v>-425232.7905877809</v>
       </c>
       <c r="F6" t="n">
-        <v>359074.1814185907</v>
+        <v>358825.5491271258</v>
       </c>
       <c r="G6" t="n">
-        <v>307918.3347396659</v>
+        <v>307871.9631510481</v>
       </c>
       <c r="H6" t="n">
-        <v>370991.9379478399</v>
+        <v>370945.5663592219</v>
       </c>
       <c r="I6" t="n">
         <v>356580.4519477525</v>
       </c>
       <c r="J6" t="n">
-        <v>230070.4850046933</v>
+        <v>230070.4850046932</v>
       </c>
       <c r="K6" t="n">
-        <v>360483.1739354296</v>
+        <v>360483.1739354288</v>
       </c>
       <c r="L6" t="n">
-        <v>297409.5707272549</v>
+        <v>297409.5707272554</v>
       </c>
       <c r="M6" t="n">
-        <v>288862.4214908388</v>
+        <v>288862.4214908387</v>
       </c>
       <c r="N6" t="n">
-        <v>369924.6209915652</v>
+        <v>369924.6209915646</v>
       </c>
       <c r="O6" t="n">
         <v>369924.6209915652</v>
       </c>
       <c r="P6" t="n">
-        <v>369924.6209915651</v>
+        <v>369924.6209915648</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F2" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G2" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="H2" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="I2" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="J2" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="K2" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="M2" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="N2" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="O2" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="P2" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>699.0700829154823</v>
+        <v>699.0700829154814</v>
       </c>
       <c r="F3" t="n">
         <v>699.0700829154814</v>
@@ -26762,7 +26762,7 @@
         <v>699.0700829154814</v>
       </c>
       <c r="K3" t="n">
-        <v>699.0700829154813</v>
+        <v>699.0700829154814</v>
       </c>
       <c r="L3" t="n">
         <v>699.0700829154814</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>362.4734406970333</v>
+        <v>362.4734406970323</v>
       </c>
       <c r="F4" t="n">
-        <v>362.4734406970324</v>
+        <v>362.4734406970323</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4734406970324</v>
+        <v>362.4734406970322</v>
       </c>
       <c r="H4" t="n">
-        <v>362.4734406970324</v>
+        <v>362.4734406970322</v>
       </c>
       <c r="I4" t="n">
-        <v>422.5185495357616</v>
+        <v>422.5185495357621</v>
       </c>
       <c r="J4" t="n">
         <v>920.9541678978701</v>
       </c>
       <c r="K4" t="n">
-        <v>920.9541678978701</v>
+        <v>920.9541678978702</v>
       </c>
       <c r="L4" t="n">
-        <v>920.9541678978701</v>
+        <v>920.9541678978703</v>
       </c>
       <c r="M4" t="n">
-        <v>558.4807272008369</v>
+        <v>558.4807272008378</v>
       </c>
       <c r="N4" t="n">
-        <v>558.4807272008369</v>
+        <v>558.4807272008378</v>
       </c>
       <c r="O4" t="n">
-        <v>558.4807272008371</v>
+        <v>558.4807272008377</v>
       </c>
       <c r="P4" t="n">
-        <v>558.4807272008371</v>
+        <v>558.4807272008377</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021761</v>
       </c>
       <c r="M2" t="n">
-        <v>101.3277493759079</v>
+        <v>101.3277493759077</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>699.0700829154823</v>
+        <v>699.0700829154814</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.978840830005206e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>362.4734406970333</v>
+        <v>362.4734406970323</v>
       </c>
       <c r="F4" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.04510883872922</v>
+        <v>60.04510883872996</v>
       </c>
       <c r="J4" t="n">
-        <v>498.4356183621085</v>
+        <v>498.435618362108</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>362.4734406970333</v>
+        <v>362.4734406970323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="C11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="D11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="E11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="H11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="I11" t="n">
-        <v>102.1305654634747</v>
+        <v>102.1305654634749</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="T11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="U11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="W11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="Y11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="E12" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H12" t="n">
-        <v>97.71325251404465</v>
+        <v>97.71325251404467</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>37.62587671097612</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,22 +28217,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>23.40832280055565</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>142.7459286424024</v>
+        <v>135.4344463895251</v>
       </c>
       <c r="V12" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X12" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,31 +28245,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="C13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="D13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="I13" t="n">
         <v>117.5402481357105</v>
       </c>
       <c r="J13" t="n">
-        <v>4.233474627595641</v>
+        <v>4.233474627595754</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28293,28 +28293,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="U13" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>67.15034368760396</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="W13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X13" t="n">
-        <v>142.7459286424024</v>
+        <v>45.01582887975144</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="C14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="D14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="E14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="H14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="I14" t="n">
         <v>102.1305654634749</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="T14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="U14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="W14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="Y14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
     </row>
     <row r="15">
@@ -28406,25 +28406,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G15" t="n">
         <v>135.8398569848641</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.71325251404467</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>37.62587671097612</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>142.7459286424024</v>
+        <v>135.4344463895258</v>
       </c>
       <c r="U15" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="W15" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X15" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>128.0276469721425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="C16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="D16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="E16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="H16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="I16" t="n">
         <v>117.5402481357105</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.233474627595754</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28530,28 +28530,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>45.01582887975138</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="U16" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="W16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.38381831520101</v>
+        <v>142.7459286424023</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="C17" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="D17" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="E17" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="F17" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="G17" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="H17" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="I17" t="n">
         <v>102.1305654634749</v>
@@ -28618,19 +28618,19 @@
         <v>210.7936212708147</v>
       </c>
       <c r="U17" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="V17" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="W17" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="X17" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="Y17" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
     </row>
     <row r="18">
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.8398569848641</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.799003079515217</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.10392297596</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>61.33195544969126</v>
+        <v>221.58793265262</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>10.8836148856266</v>
       </c>
     </row>
     <row r="19">
@@ -28719,22 +28719,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H19" t="n">
         <v>151.0191308502045</v>
@@ -28767,25 +28767,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>202.0474611689562</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5879326526201</v>
+        <v>190.2801286022109</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>221.58793265262</v>
       </c>
       <c r="V19" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>221.1085352429792</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="C20" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="D20" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="E20" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="F20" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="G20" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="H20" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="I20" t="n">
         <v>102.1305654634749</v>
@@ -28855,19 +28855,19 @@
         <v>210.7936212708147</v>
       </c>
       <c r="U20" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="V20" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="W20" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="X20" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="Y20" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
     </row>
     <row r="21">
@@ -28883,16 +28883,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8398569848641</v>
+        <v>86.01969906039712</v>
       </c>
       <c r="H21" t="n">
         <v>97.71325251404467</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.799003079515217</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>7.776334579619402</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>221.58793265262</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>38.45220760393903</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>113.0172555974765</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I22" t="n">
         <v>117.5402481357105</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.233474627595754</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29010,19 +29010,19 @@
         <v>202.0474611689562</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="C23" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="D23" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="E23" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="F23" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="G23" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="H23" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="I23" t="n">
         <v>102.1305654634749</v>
@@ -29092,19 +29092,19 @@
         <v>210.7936212708147</v>
       </c>
       <c r="U23" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="V23" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="W23" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="X23" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="Y23" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>157.0935696123045</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>135.8398569848641</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.71325251404467</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>37.62587671097612</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,19 +29162,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.799003079515217</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>194.10392297596</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>185.2359589459918</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29208,16 +29208,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>6.795497904696219</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.233474627595754</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29253,16 +29253,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="W25" t="n">
-        <v>221.5879326526201</v>
+        <v>156.060342137961</v>
       </c>
       <c r="X25" t="n">
-        <v>221.5879326526201</v>
+        <v>221.58793265262</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="C26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="D26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="E26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="F26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="G26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="H26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="I26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="T26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="U26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="V26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="W26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="X26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="C28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="D28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="E28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="F28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="G28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="H28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="I28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="J28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.8420040102171</v>
       </c>
       <c r="K28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="L28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="M28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="N28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="O28" t="n">
-        <v>78.84200401021712</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="P28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="R28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="S28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="T28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="U28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="V28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="W28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="X28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="C29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="D29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="E29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="F29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="G29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="H29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="I29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="T29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="U29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="V29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="W29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="X29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="C31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="D31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="E31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="F31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="G31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="H31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="I31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="J31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="K31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="L31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="M31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="N31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.8420040102171</v>
       </c>
       <c r="O31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="P31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="R31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="S31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="T31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="U31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="V31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="W31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="X31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021768</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="C32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="D32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="E32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="F32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="G32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="H32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="I32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="T32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="U32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="V32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="W32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="X32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="C34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="D34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="E34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="F34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="G34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="H34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="I34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="J34" t="n">
-        <v>78.84200401021718</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="K34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="L34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="M34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="N34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="O34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="P34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="R34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="S34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="T34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="U34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="V34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="W34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="X34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021762</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="C35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="D35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="E35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="F35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="G35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="H35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="I35" t="n">
         <v>102.1305654634749</v>
@@ -30037,22 +30037,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y35" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="36">
@@ -30071,19 +30071,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>41.14305225822888</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>135.8398569848641</v>
       </c>
       <c r="H36" t="n">
-        <v>97.71325251404467</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>37.62587671097612</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>126.1248888485479</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>111.8211622313805</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30153,10 +30153,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H37" t="n">
         <v>151.0191308502045</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U37" t="n">
-        <v>123.529177413979</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W37" t="n">
-        <v>180.1697533861255</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="C38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="D38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="E38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="F38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="G38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="H38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="I38" t="n">
         <v>102.1305654634749</v>
@@ -30274,22 +30274,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="39">
@@ -30305,7 +30305,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>88.49901213756812</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>97.71325251404467</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>37.62587671097612</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.799003079515217</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>119.3258857690328</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>111.8211622313798</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>180.1697533861255</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W40" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X40" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>140.1629946192342</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="C41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="D41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="E41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="F41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="G41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="H41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="I41" t="n">
         <v>102.1305654634749</v>
@@ -30511,22 +30511,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="42">
@@ -30542,16 +30542,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>76.89380355779387</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>80.58552633130535</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>97.71325251404467</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30636,10 +30636,10 @@
         <v>151.0191308502045</v>
       </c>
       <c r="I43" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.233474627595754</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,25 +30663,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>120.611413834547</v>
+        <v>49.52943018515428</v>
       </c>
       <c r="S43" t="n">
-        <v>175.9507496147424</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="T43" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1697533861255</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="C44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="D44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="E44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="F44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="G44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="H44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="I44" t="n">
         <v>102.1305654634749</v>
@@ -30748,22 +30748,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>97.71325251404467</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>37.62587671097612</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,19 +30821,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6.799003079515217</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>119.3258857690318</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>88.49901213756854</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -30876,7 +30876,7 @@
         <v>117.5402481357105</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.233474627595754</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="T46" t="n">
-        <v>180.1697533861255</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>180.1697533861255</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W46" t="n">
-        <v>131.1357637551433</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>180.1697533861255</v>
+        <v>112.1589354355688</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.810331991620027</v>
+        <v>2.810331991620024</v>
       </c>
       <c r="H11" t="n">
-        <v>28.78131250917861</v>
+        <v>28.78131250917857</v>
       </c>
       <c r="I11" t="n">
-        <v>108.3453241069312</v>
+        <v>108.3453241069311</v>
       </c>
       <c r="J11" t="n">
-        <v>238.5234148737605</v>
+        <v>238.5234148737602</v>
       </c>
       <c r="K11" t="n">
-        <v>357.4847680790363</v>
+        <v>357.4847680790359</v>
       </c>
       <c r="L11" t="n">
-        <v>443.4914657675778</v>
+        <v>443.4914657675773</v>
       </c>
       <c r="M11" t="n">
-        <v>493.4697073235505</v>
+        <v>493.4697073235498</v>
       </c>
       <c r="N11" t="n">
-        <v>501.4545630947409</v>
+        <v>501.4545630947403</v>
       </c>
       <c r="O11" t="n">
-        <v>473.5093243530692</v>
+        <v>473.5093243530686</v>
       </c>
       <c r="P11" t="n">
-        <v>404.1292533099498</v>
+        <v>404.1292533099492</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.4842388600574</v>
+        <v>303.484238860057</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5345169686017</v>
+        <v>176.5345169686015</v>
       </c>
       <c r="S11" t="n">
-        <v>64.04044025904143</v>
+        <v>64.04044025904135</v>
       </c>
       <c r="T11" t="n">
-        <v>12.30222829331668</v>
+        <v>12.30222829331666</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2248265593296021</v>
+        <v>0.2248265593296019</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.503660178346509</v>
+        <v>1.503660178346507</v>
       </c>
       <c r="H12" t="n">
-        <v>14.52219172245182</v>
+        <v>14.5221917224518</v>
       </c>
       <c r="I12" t="n">
-        <v>51.77075614043903</v>
+        <v>51.77075614043896</v>
       </c>
       <c r="J12" t="n">
-        <v>142.062911849834</v>
+        <v>142.0629118498339</v>
       </c>
       <c r="K12" t="n">
-        <v>242.8081437990501</v>
+        <v>242.8081437990498</v>
       </c>
       <c r="L12" t="n">
-        <v>326.4855137238769</v>
+        <v>326.4855137238765</v>
       </c>
       <c r="M12" t="n">
-        <v>380.9931951889378</v>
+        <v>380.9931951889373</v>
       </c>
       <c r="N12" t="n">
-        <v>391.0769513849546</v>
+        <v>391.0769513849541</v>
       </c>
       <c r="O12" t="n">
-        <v>357.7590074331714</v>
+        <v>357.759007433171</v>
       </c>
       <c r="P12" t="n">
-        <v>287.1331440563611</v>
+        <v>287.1331440563607</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.9409027657755</v>
+        <v>191.9409027657752</v>
       </c>
       <c r="R12" t="n">
-        <v>93.35883107312803</v>
+        <v>93.35883107312792</v>
       </c>
       <c r="S12" t="n">
-        <v>27.92982831270817</v>
+        <v>27.92982831270813</v>
       </c>
       <c r="T12" t="n">
-        <v>6.060805718861585</v>
+        <v>6.060805718861578</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09892501173332301</v>
+        <v>0.09892501173332288</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.260618182306607</v>
+        <v>1.260618182306606</v>
       </c>
       <c r="H13" t="n">
-        <v>11.20804165723512</v>
+        <v>11.2080416572351</v>
       </c>
       <c r="I13" t="n">
-        <v>37.9102267915478</v>
+        <v>37.91022679154776</v>
       </c>
       <c r="J13" t="n">
-        <v>89.12570548907713</v>
+        <v>89.12570548907702</v>
       </c>
       <c r="K13" t="n">
-        <v>146.4609124534404</v>
+        <v>146.4609124534402</v>
       </c>
       <c r="L13" t="n">
-        <v>187.4195432131114</v>
+        <v>187.4195432131112</v>
       </c>
       <c r="M13" t="n">
-        <v>197.6076301592075</v>
+        <v>197.6076301592073</v>
       </c>
       <c r="N13" t="n">
-        <v>192.9089623887921</v>
+        <v>192.9089623887919</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1826499863922</v>
+        <v>178.1826499863919</v>
       </c>
       <c r="P13" t="n">
-        <v>152.4660390673372</v>
+        <v>152.4660390673371</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R13" t="n">
-        <v>56.68197754262253</v>
+        <v>56.68197754262246</v>
       </c>
       <c r="S13" t="n">
-        <v>21.96913686801605</v>
+        <v>21.96913686801602</v>
       </c>
       <c r="T13" t="n">
-        <v>5.386277688037321</v>
+        <v>5.386277688037314</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06876099176217866</v>
+        <v>0.06876099176217858</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.810331991620023</v>
+        <v>2.810331991620024</v>
       </c>
       <c r="H29" t="n">
         <v>28.78131250917857</v>
       </c>
       <c r="I29" t="n">
-        <v>108.345324106931</v>
+        <v>108.3453241069311</v>
       </c>
       <c r="J29" t="n">
-        <v>238.5234148737601</v>
+        <v>238.5234148737602</v>
       </c>
       <c r="K29" t="n">
-        <v>357.4847680790358</v>
+        <v>357.4847680790359</v>
       </c>
       <c r="L29" t="n">
-        <v>443.4914657675772</v>
+        <v>443.4914657675773</v>
       </c>
       <c r="M29" t="n">
         <v>493.4697073235498</v>
       </c>
       <c r="N29" t="n">
-        <v>501.4545630947402</v>
+        <v>501.4545630947403</v>
       </c>
       <c r="O29" t="n">
         <v>473.5093243530686</v>
       </c>
       <c r="P29" t="n">
-        <v>404.1292533099491</v>
+        <v>404.1292533099492</v>
       </c>
       <c r="Q29" t="n">
         <v>303.484238860057</v>
       </c>
       <c r="R29" t="n">
-        <v>176.5345169686014</v>
+        <v>176.5345169686015</v>
       </c>
       <c r="S29" t="n">
         <v>64.04044025904135</v>
@@ -33214,7 +33214,7 @@
         <v>12.30222829331666</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2248265593296018</v>
+        <v>0.2248265593296019</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,13 +33254,13 @@
         <v>1.503660178346507</v>
       </c>
       <c r="H30" t="n">
-        <v>14.52219172245179</v>
+        <v>14.5221917224518</v>
       </c>
       <c r="I30" t="n">
         <v>51.77075614043896</v>
       </c>
       <c r="J30" t="n">
-        <v>142.0629118498338</v>
+        <v>142.0629118498339</v>
       </c>
       <c r="K30" t="n">
         <v>242.8081437990498</v>
@@ -33269,13 +33269,13 @@
         <v>326.4855137238765</v>
       </c>
       <c r="M30" t="n">
-        <v>380.9931951889372</v>
+        <v>380.9931951889373</v>
       </c>
       <c r="N30" t="n">
-        <v>391.076951384954</v>
+        <v>391.0769513849541</v>
       </c>
       <c r="O30" t="n">
-        <v>357.7590074331709</v>
+        <v>357.759007433171</v>
       </c>
       <c r="P30" t="n">
         <v>287.1331440563607</v>
@@ -33284,16 +33284,16 @@
         <v>191.9409027657752</v>
       </c>
       <c r="R30" t="n">
-        <v>93.3588310731279</v>
+        <v>93.35883107312792</v>
       </c>
       <c r="S30" t="n">
-        <v>27.92982831270812</v>
+        <v>27.92982831270813</v>
       </c>
       <c r="T30" t="n">
-        <v>6.060805718861577</v>
+        <v>6.060805718861578</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09892501173332287</v>
+        <v>0.09892501173332288</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.260618182306605</v>
+        <v>1.260618182306606</v>
       </c>
       <c r="H31" t="n">
         <v>11.2080416572351</v>
       </c>
       <c r="I31" t="n">
-        <v>37.91022679154775</v>
+        <v>37.91022679154776</v>
       </c>
       <c r="J31" t="n">
-        <v>89.12570548907701</v>
+        <v>89.12570548907702</v>
       </c>
       <c r="K31" t="n">
-        <v>146.4609124534401</v>
+        <v>146.4609124534402</v>
       </c>
       <c r="L31" t="n">
         <v>187.4195432131112</v>
       </c>
       <c r="M31" t="n">
-        <v>197.6076301592072</v>
+        <v>197.6076301592073</v>
       </c>
       <c r="N31" t="n">
-        <v>192.9089623887918</v>
+        <v>192.9089623887919</v>
       </c>
       <c r="O31" t="n">
         <v>178.1826499863919</v>
       </c>
       <c r="P31" t="n">
-        <v>152.466039067337</v>
+        <v>152.4660390673371</v>
       </c>
       <c r="Q31" t="n">
         <v>105.5595825202377</v>
       </c>
       <c r="R31" t="n">
-        <v>56.68197754262245</v>
+        <v>56.68197754262246</v>
       </c>
       <c r="S31" t="n">
         <v>21.96913686801602</v>
       </c>
       <c r="T31" t="n">
-        <v>5.386277688037313</v>
+        <v>5.386277688037314</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06876099176217856</v>
+        <v>0.06876099176217858</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.47751034707423</v>
+        <v>57.47751034707392</v>
       </c>
       <c r="K11" t="n">
-        <v>137.3949170340558</v>
+        <v>137.3949170340553</v>
       </c>
       <c r="L11" t="n">
-        <v>207.7250507975906</v>
+        <v>207.72505079759</v>
       </c>
       <c r="M11" t="n">
-        <v>263.1234740962777</v>
+        <v>263.1234740962771</v>
       </c>
       <c r="N11" t="n">
-        <v>272.04149949815</v>
+        <v>272.0414994981493</v>
       </c>
       <c r="O11" t="n">
-        <v>243.4111129313825</v>
+        <v>243.4111129313819</v>
       </c>
       <c r="P11" t="n">
-        <v>172.8962575546802</v>
+        <v>172.8962575546797</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.17854898560793</v>
+        <v>81.17854898560753</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.22528518316733</v>
+        <v>15.22528518316716</v>
       </c>
       <c r="K12" t="n">
-        <v>104.9667048246911</v>
+        <v>104.9667048246908</v>
       </c>
       <c r="L12" t="n">
-        <v>187.9311339440027</v>
+        <v>248.8706746496007</v>
       </c>
       <c r="M12" t="n">
-        <v>362.4734406970333</v>
+        <v>238.859161266919</v>
       </c>
       <c r="N12" t="n">
-        <v>344.3711782854124</v>
+        <v>259.7352393016208</v>
       </c>
       <c r="O12" t="n">
-        <v>215.162762988727</v>
+        <v>362.4734406970323</v>
       </c>
       <c r="P12" t="n">
-        <v>153.1587366420308</v>
+        <v>153.1587366420304</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.95912867975395</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>124.1914206275575</v>
+        <v>124.1914206275573</v>
       </c>
       <c r="L13" t="n">
-        <v>215.0095684734276</v>
+        <v>215.0095684734274</v>
       </c>
       <c r="M13" t="n">
-        <v>237.1915071210481</v>
+        <v>237.1915071210479</v>
       </c>
       <c r="N13" t="n">
-        <v>237.0411347680207</v>
+        <v>237.0411347680205</v>
       </c>
       <c r="O13" t="n">
-        <v>202.7677779004318</v>
+        <v>202.7677779004316</v>
       </c>
       <c r="P13" t="n">
-        <v>149.7445983322307</v>
+        <v>149.7445983322305</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.39753926854344</v>
+        <v>19.3975392685433</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>141.316320523576</v>
+        <v>15.22528518316716</v>
       </c>
       <c r="K15" t="n">
         <v>104.9667048246908</v>
       </c>
       <c r="L15" t="n">
-        <v>187.9311339440023</v>
+        <v>362.4734406970323</v>
       </c>
       <c r="M15" t="n">
         <v>238.859161266919</v>
       </c>
       <c r="N15" t="n">
-        <v>259.7352393016208</v>
+        <v>293.4431509624946</v>
       </c>
       <c r="O15" t="n">
         <v>215.1627629887265</v>
@@ -35744,7 +35744,7 @@
         <v>153.1587366420304</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.1183117532495</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>57.47751034707392</v>
       </c>
       <c r="K17" t="n">
-        <v>137.3949170340553</v>
+        <v>137.3949170340549</v>
       </c>
       <c r="L17" t="n">
         <v>207.72505079759</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.22528518316716</v>
+        <v>76.16482588876477</v>
       </c>
       <c r="K18" t="n">
-        <v>313.216923238595</v>
+        <v>104.9667048246908</v>
       </c>
       <c r="L18" t="n">
         <v>187.9311339440023</v>
@@ -35975,7 +35975,7 @@
         <v>259.7352393016208</v>
       </c>
       <c r="O18" t="n">
-        <v>215.1627629887265</v>
+        <v>362.4734406970322</v>
       </c>
       <c r="P18" t="n">
         <v>153.1587366420304</v>
@@ -36121,7 +36121,7 @@
         <v>57.47751034707392</v>
       </c>
       <c r="K20" t="n">
-        <v>137.3949170340558</v>
+        <v>137.3949170340553</v>
       </c>
       <c r="L20" t="n">
         <v>207.72505079759</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>99.86122416695788</v>
+        <v>141.316320523576</v>
       </c>
       <c r="K21" t="n">
         <v>104.9667048246908</v>
@@ -36206,7 +36206,7 @@
         <v>187.9311339440023</v>
       </c>
       <c r="M21" t="n">
-        <v>362.4734406970324</v>
+        <v>321.0183443404134</v>
       </c>
       <c r="N21" t="n">
         <v>259.7352393016208</v>
@@ -36358,7 +36358,7 @@
         <v>57.47751034707392</v>
       </c>
       <c r="K23" t="n">
-        <v>162.8342967254829</v>
+        <v>375.1492873853895</v>
       </c>
       <c r="L23" t="n">
         <v>207.72505079759</v>
@@ -36376,7 +36376,7 @@
         <v>172.8962575546797</v>
       </c>
       <c r="Q23" t="n">
-        <v>293.4935396455122</v>
+        <v>81.17854898560753</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>141.316320523576</v>
+        <v>29.08675082053237</v>
       </c>
       <c r="K24" t="n">
         <v>104.9667048246908</v>
@@ -36446,16 +36446,16 @@
         <v>238.859161266919</v>
       </c>
       <c r="N24" t="n">
-        <v>259.7352393016208</v>
+        <v>422.5185495357621</v>
       </c>
       <c r="O24" t="n">
         <v>215.1627629887265</v>
       </c>
       <c r="P24" t="n">
-        <v>262.9950023310088</v>
+        <v>422.5185495357621</v>
       </c>
       <c r="Q24" t="n">
-        <v>262.0364164156028</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>226.5741255191477</v>
+        <v>57.47751034707392</v>
       </c>
       <c r="K26" t="n">
-        <v>409.734313742065</v>
+        <v>461.5403296052201</v>
       </c>
       <c r="L26" t="n">
         <v>625.3862653480405</v>
       </c>
       <c r="M26" t="n">
-        <v>263.1234740962771</v>
+        <v>353.7486743777438</v>
       </c>
       <c r="N26" t="n">
         <v>709.3884239101335</v>
@@ -36616,7 +36616,7 @@
         <v>293.4935396455122</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>26.66539902745177</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>104.9667048246908</v>
       </c>
       <c r="L27" t="n">
-        <v>187.9311339440023</v>
+        <v>558.7714792474615</v>
       </c>
       <c r="M27" t="n">
         <v>704.564225016919</v>
       </c>
       <c r="N27" t="n">
-        <v>739.0776136451743</v>
+        <v>259.7352393016208</v>
       </c>
       <c r="O27" t="n">
         <v>609.025082265456</v>
       </c>
       <c r="P27" t="n">
-        <v>165.5897760056407</v>
+        <v>153.1587366420304</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.95912867975369</v>
+        <v>172.8921970834581</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.60852938262191</v>
+        <v>74.60852938262134</v>
       </c>
       <c r="K28" t="n">
         <v>203.033424637775</v>
@@ -36765,13 +36765,13 @@
         <v>315.8831387782382</v>
       </c>
       <c r="O28" t="n">
-        <v>281.6097819106487</v>
+        <v>281.6097819106493</v>
       </c>
       <c r="P28" t="n">
         <v>228.5866023424482</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.23954327876096</v>
+        <v>98.23954327876098</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>226.5741255191476</v>
+        <v>226.5741255191477</v>
       </c>
       <c r="K29" t="n">
-        <v>461.54032960522</v>
+        <v>137.3949170340553</v>
       </c>
       <c r="L29" t="n">
-        <v>625.3862653480404</v>
+        <v>625.3862653480405</v>
       </c>
       <c r="M29" t="n">
         <v>712.6370075891095</v>
       </c>
       <c r="N29" t="n">
-        <v>272.0414994981493</v>
+        <v>709.3884239101335</v>
       </c>
       <c r="O29" t="n">
-        <v>624.2112941941272</v>
+        <v>420.3717583818529</v>
       </c>
       <c r="P29" t="n">
         <v>494.6949657261623</v>
       </c>
       <c r="Q29" t="n">
-        <v>229.5209147015093</v>
+        <v>293.4935396455122</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>26.66539902745177</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>141.316320523576</v>
+        <v>15.22528518316716</v>
       </c>
       <c r="K30" t="n">
         <v>369.4319418372694</v>
       </c>
       <c r="L30" t="n">
-        <v>558.7714792474615</v>
+        <v>187.9311339440023</v>
       </c>
       <c r="M30" t="n">
-        <v>300.2632839685799</v>
+        <v>238.859161266919</v>
       </c>
       <c r="N30" t="n">
-        <v>259.7352393016207</v>
+        <v>634.2857111062691</v>
       </c>
       <c r="O30" t="n">
-        <v>215.1627629887265</v>
+        <v>609.025082265456</v>
       </c>
       <c r="P30" t="n">
         <v>471.6215052819676</v>
       </c>
       <c r="Q30" t="n">
-        <v>262.0364164156027</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.6085293826219</v>
+        <v>74.60852938262192</v>
       </c>
       <c r="K31" t="n">
-        <v>203.0334246377749</v>
+        <v>203.033424637775</v>
       </c>
       <c r="L31" t="n">
         <v>293.851572483645</v>
@@ -36999,16 +36999,16 @@
         <v>316.0335111312655</v>
       </c>
       <c r="N31" t="n">
-        <v>315.8831387782381</v>
+        <v>315.8831387782376</v>
       </c>
       <c r="O31" t="n">
-        <v>281.6097819106492</v>
+        <v>281.6097819106493</v>
       </c>
       <c r="P31" t="n">
         <v>228.5866023424482</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.23954327876095</v>
+        <v>98.23954327876098</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>461.5403296052201</v>
       </c>
       <c r="L32" t="n">
-        <v>561.413640404037</v>
+        <v>625.3862653480405</v>
       </c>
       <c r="M32" t="n">
-        <v>712.6370075891095</v>
+        <v>565.4522404684163</v>
       </c>
       <c r="N32" t="n">
-        <v>272.0414994981493</v>
+        <v>709.3884239101335</v>
       </c>
       <c r="O32" t="n">
-        <v>624.2112941941273</v>
+        <v>243.4111129313819</v>
       </c>
       <c r="P32" t="n">
         <v>494.6949657261623</v>
@@ -37090,7 +37090,7 @@
         <v>293.4935396455122</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>26.66539902745177</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>141.316320523576</v>
       </c>
       <c r="K33" t="n">
-        <v>369.4319418372694</v>
+        <v>104.9667048246908</v>
       </c>
       <c r="L33" t="n">
-        <v>558.7714792474615</v>
+        <v>468.133457243934</v>
       </c>
       <c r="M33" t="n">
-        <v>300.2632839685799</v>
+        <v>704.564225016919</v>
       </c>
       <c r="N33" t="n">
-        <v>259.7352393016208</v>
+        <v>739.0776136451743</v>
       </c>
       <c r="O33" t="n">
         <v>215.1627629887265</v>
       </c>
       <c r="P33" t="n">
-        <v>471.6215052819676</v>
+        <v>153.1587366420304</v>
       </c>
       <c r="Q33" t="n">
-        <v>262.0364164156028</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.60852938262143</v>
+        <v>74.60852938262187</v>
       </c>
       <c r="K34" t="n">
-        <v>203.033424637775</v>
+        <v>203.0334246377749</v>
       </c>
       <c r="L34" t="n">
         <v>293.851572483645</v>
@@ -37236,16 +37236,16 @@
         <v>316.0335111312655</v>
       </c>
       <c r="N34" t="n">
-        <v>315.8831387782382</v>
+        <v>315.8831387782381</v>
       </c>
       <c r="O34" t="n">
-        <v>281.6097819106493</v>
+        <v>281.6097819106492</v>
       </c>
       <c r="P34" t="n">
-        <v>228.5866023424482</v>
+        <v>228.5866023424481</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.23954327876096</v>
+        <v>98.23954327876092</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>226.5741255191477</v>
+        <v>57.47751034707392</v>
       </c>
       <c r="K35" t="n">
         <v>137.3949170340553</v>
@@ -37318,13 +37318,13 @@
         <v>272.0414994981493</v>
       </c>
       <c r="O35" t="n">
-        <v>528.6254492796579</v>
+        <v>485.4070737918304</v>
       </c>
       <c r="P35" t="n">
         <v>494.6949657261623</v>
       </c>
       <c r="Q35" t="n">
-        <v>81.17854898560753</v>
+        <v>293.4935396455122</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>141.316320523576</v>
+        <v>117.9116697371745</v>
       </c>
       <c r="K36" t="n">
         <v>369.4319418372694</v>
       </c>
       <c r="L36" t="n">
-        <v>228.339487748792</v>
+        <v>187.9311339440023</v>
       </c>
       <c r="M36" t="n">
         <v>238.859161266919</v>
       </c>
       <c r="N36" t="n">
-        <v>259.7352393016208</v>
+        <v>558.4807272008378</v>
       </c>
       <c r="O36" t="n">
-        <v>558.4807272008369</v>
+        <v>215.1627629887265</v>
       </c>
       <c r="P36" t="n">
-        <v>153.1587366420304</v>
+        <v>471.6215052819676</v>
       </c>
       <c r="Q36" t="n">
-        <v>262.0364164156028</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>226.5741255191477</v>
+        <v>57.47751034707392</v>
       </c>
       <c r="K38" t="n">
-        <v>210.2942627224265</v>
+        <v>137.3949170340553</v>
       </c>
       <c r="L38" t="n">
-        <v>207.72505079759</v>
+        <v>558.4807272008378</v>
       </c>
       <c r="M38" t="n">
-        <v>263.1234740962771</v>
+        <v>558.4807272008378</v>
       </c>
       <c r="N38" t="n">
         <v>272.0414994981493</v>
@@ -37558,10 +37558,10 @@
         <v>243.4111129313819</v>
       </c>
       <c r="P38" t="n">
-        <v>494.6949657261623</v>
+        <v>172.8962575546797</v>
       </c>
       <c r="Q38" t="n">
-        <v>293.4935396455122</v>
+        <v>211.175279169635</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>141.316320523576</v>
+        <v>15.22528518316716</v>
       </c>
       <c r="K39" t="n">
-        <v>369.4319418372694</v>
+        <v>104.9667048246908</v>
       </c>
       <c r="L39" t="n">
         <v>187.9311339440023</v>
       </c>
       <c r="M39" t="n">
-        <v>238.859161266919</v>
+        <v>371.0782995254817</v>
       </c>
       <c r="N39" t="n">
-        <v>259.7352393016208</v>
+        <v>558.4807272008378</v>
       </c>
       <c r="O39" t="n">
-        <v>280.4263123656894</v>
+        <v>558.4807272008378</v>
       </c>
       <c r="P39" t="n">
-        <v>471.6215052819676</v>
+        <v>153.1587366420304</v>
       </c>
       <c r="Q39" t="n">
         <v>262.0364164156028</v>
@@ -37780,7 +37780,7 @@
         <v>226.5741255191477</v>
       </c>
       <c r="K41" t="n">
-        <v>461.5403296052201</v>
+        <v>422.6092533823345</v>
       </c>
       <c r="L41" t="n">
         <v>207.72505079759</v>
@@ -37795,10 +37795,10 @@
         <v>243.4111129313819</v>
       </c>
       <c r="P41" t="n">
-        <v>243.4488988433698</v>
+        <v>494.6949657261623</v>
       </c>
       <c r="Q41" t="n">
-        <v>293.4935396455122</v>
+        <v>81.17854898560753</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>141.316320523576</v>
+        <v>15.22528518316716</v>
       </c>
       <c r="K42" t="n">
-        <v>369.4319418372694</v>
+        <v>104.9667048246908</v>
       </c>
       <c r="L42" t="n">
-        <v>253.1946833209661</v>
+        <v>558.4807272008377</v>
       </c>
       <c r="M42" t="n">
-        <v>238.859161266919</v>
+        <v>558.4807272008377</v>
       </c>
       <c r="N42" t="n">
         <v>259.7352393016208</v>
@@ -37874,7 +37874,7 @@
         <v>215.1627629887265</v>
       </c>
       <c r="P42" t="n">
-        <v>471.6215052819676</v>
+        <v>237.2701678211666</v>
       </c>
       <c r="Q42" t="n">
         <v>262.0364164156028</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>226.5741255191477</v>
+        <v>57.47751034707392</v>
       </c>
       <c r="K44" t="n">
-        <v>461.5403296052201</v>
+        <v>137.3949170340553</v>
       </c>
       <c r="L44" t="n">
-        <v>207.72505079759</v>
+        <v>558.4807272008377</v>
       </c>
       <c r="M44" t="n">
         <v>263.1234740962771</v>
       </c>
       <c r="N44" t="n">
-        <v>272.0414994981493</v>
+        <v>558.4807272008377</v>
       </c>
       <c r="O44" t="n">
         <v>243.4111129313819</v>
       </c>
       <c r="P44" t="n">
-        <v>243.4488988433698</v>
+        <v>285.1456141131272</v>
       </c>
       <c r="Q44" t="n">
-        <v>293.4935396455122</v>
+        <v>81.17854898560753</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>26.66539902745177</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>141.316320523576</v>
+        <v>15.22528518316716</v>
       </c>
       <c r="K45" t="n">
-        <v>369.4319418372694</v>
+        <v>209.9542140385289</v>
       </c>
       <c r="L45" t="n">
-        <v>253.1946833209661</v>
+        <v>558.4807272008377</v>
       </c>
       <c r="M45" t="n">
         <v>238.859161266919</v>
       </c>
       <c r="N45" t="n">
-        <v>259.7352393016208</v>
+        <v>558.4807272008377</v>
       </c>
       <c r="O45" t="n">
         <v>215.1627629887265</v>
       </c>
       <c r="P45" t="n">
-        <v>471.6215052819676</v>
+        <v>153.1587366420304</v>
       </c>
       <c r="Q45" t="n">
         <v>262.0364164156028</v>
